--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业应交增值税.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业应交增值税.xlsx
@@ -2252,7 +2252,7 @@
         <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -2297,7 +2297,7 @@
         <v>13.04</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8199999999999985</v>
+        <v>0.00999999999999579</v>
       </c>
       <c r="AD4" t="n">
         <v>14.65</v>
@@ -2306,7 +2306,7 @@
         <v>23.23</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.479999999999999</v>
       </c>
       <c r="AG4" t="n">
         <v>2.68</v>
@@ -2351,7 +2351,7 @@
         <v>5.77</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.8199999999999998</v>
+        <v>0.4999999999999987</v>
       </c>
       <c r="AV4" t="n">
         <v>3.63</v>
@@ -2360,7 +2360,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.629999999999999</v>
+        <v>0.8099999999999927</v>
       </c>
       <c r="AY4" t="n">
         <v>18.98</v>
@@ -2378,7 +2378,7 @@
         <v>9.1</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="BE4" t="n">
         <v>0.52</v>
@@ -2423,7 +2423,7 @@
         <v>22.29</v>
       </c>
       <c r="BS4" t="n">
-        <v>37.98999999999998</v>
+        <v>28.62999999999991</v>
       </c>
       <c r="BT4" t="n">
         <v>159.96</v>
@@ -2441,7 +2441,7 @@
         <v>35.11</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.67</v>
+        <v>0.6800000000000015</v>
       </c>
       <c r="BZ4" t="n">
         <v>42.32</v>
@@ -2459,7 +2459,7 @@
         <v>32.11</v>
       </c>
       <c r="CE4" t="n">
-        <v>8.920000000000002</v>
+        <v>4.360000000000003</v>
       </c>
       <c r="CF4" t="n">
         <v>50.66</v>
@@ -2468,7 +2468,7 @@
         <v>61.88</v>
       </c>
       <c r="CH4" t="n">
-        <v>29.08</v>
+        <v>6.489999999999942</v>
       </c>
       <c r="CI4" t="n">
         <v>106.36</v>
@@ -2513,7 +2513,7 @@
         <v>8.59</v>
       </c>
       <c r="CW4" t="n">
-        <v>13.21</v>
+        <v>8.81</v>
       </c>
       <c r="CX4" t="n">
         <v>47.06</v>
@@ -2540,7 +2540,7 @@
         <v>18.51</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.9400000000000031</v>
+        <v>0.1000000000000067</v>
       </c>
       <c r="DG4" t="n">
         <v>22.38</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.760000000000002</v>
+        <v>1.360000000000002</v>
       </c>
       <c r="C5" t="n">
         <v>29.28</v>
@@ -2721,7 +2721,7 @@
         <v>24.99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.01999999999999982</v>
       </c>
       <c r="I5" t="n">
         <v>9.029999999999999</v>
@@ -2730,7 +2730,7 @@
         <v>23.24</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.1500000000000008</v>
       </c>
       <c r="L5" t="n">
         <v>10.21</v>
@@ -2739,7 +2739,7 @@
         <v>16.76</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009999999999999998</v>
+        <v>0.009999999999999993</v>
       </c>
       <c r="O5" t="n">
         <v>0.08</v>
@@ -2748,7 +2748,7 @@
         <v>59.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>18.03</v>
+        <v>1.920000000000002</v>
       </c>
       <c r="R5" t="n">
         <v>89.45</v>
@@ -2757,7 +2757,7 @@
         <v>11.26</v>
       </c>
       <c r="T5" t="n">
-        <v>3.52</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
         <v>14.44</v>
@@ -2766,7 +2766,7 @@
         <v>-10.36</v>
       </c>
       <c r="W5" t="n">
-        <v>8.859999999999999</v>
+        <v>2.499999999999986</v>
       </c>
       <c r="X5" t="n">
         <v>48.96</v>
@@ -2775,7 +2775,7 @@
         <v>11.63</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.290000000000001</v>
+        <v>1.849999999999997</v>
       </c>
       <c r="AA5" t="n">
         <v>12.4</v>
@@ -2784,7 +2784,7 @@
         <v>13.51</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.770000000000001</v>
+        <v>2.110000000000011</v>
       </c>
       <c r="AD5" t="n">
         <v>19.17</v>
@@ -2802,7 +2802,7 @@
         <v>25.64</v>
       </c>
       <c r="AI5" t="n">
-        <v>20.63999999999993</v>
+        <v>1.38999999999993</v>
       </c>
       <c r="AJ5" t="n">
         <v>1523.97</v>
@@ -2811,7 +2811,7 @@
         <v>14.1</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.03</v>
+        <v>0.2299999999999993</v>
       </c>
       <c r="AM5" t="n">
         <v>5.13</v>
@@ -2820,7 +2820,7 @@
         <v>18.54</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.56</v>
+        <v>0.2600000000000029</v>
       </c>
       <c r="AP5" t="n">
         <v>48.04</v>
@@ -2829,7 +2829,7 @@
         <v>15.85</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.580000000000005</v>
+        <v>3.060000000000024</v>
       </c>
       <c r="AS5" t="n">
         <v>35.35</v>
@@ -2847,7 +2847,7 @@
         <v>14.81</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.03000000000000713</v>
       </c>
       <c r="AY5" t="n">
         <v>23.33</v>
@@ -2865,7 +2865,7 @@
         <v>8.08</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.16</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="BE5" t="n">
         <v>0.65</v>
@@ -2874,7 +2874,7 @@
         <v>-12.8</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.33</v>
+        <v>0.5000000000000002</v>
       </c>
       <c r="BH5" t="n">
         <v>12.41</v>
@@ -2919,7 +2919,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="BV5" t="n">
-        <v>11.13</v>
+        <v>5.370000000000003</v>
       </c>
       <c r="BW5" t="n">
         <v>78.25</v>
@@ -2928,7 +2928,7 @@
         <v>51.39</v>
       </c>
       <c r="BY5" t="n">
-        <v>3.6</v>
+        <v>0.5699999999999965</v>
       </c>
       <c r="BZ5" t="n">
         <v>56.97</v>
@@ -2937,7 +2937,7 @@
         <v>19.02</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.830000000000002</v>
+        <v>0.270000000000008</v>
       </c>
       <c r="CC5" t="n">
         <v>9.83</v>
@@ -2946,7 +2946,7 @@
         <v>30.03</v>
       </c>
       <c r="CE5" t="n">
-        <v>11.47</v>
+        <v>2.549999999999999</v>
       </c>
       <c r="CF5" t="n">
         <v>65.09999999999999</v>
@@ -2955,7 +2955,7 @@
         <v>45.42</v>
       </c>
       <c r="CH5" t="n">
-        <v>27.55000000000001</v>
+        <v>6.000000000000032</v>
       </c>
       <c r="CI5" t="n">
         <v>133.49</v>
@@ -2982,7 +2982,7 @@
         <v>7.99</v>
       </c>
       <c r="CQ5" t="n">
-        <v>5.23</v>
+        <v>1.509999999999998</v>
       </c>
       <c r="CR5" t="n">
         <v>25.53</v>
@@ -2991,7 +2991,7 @@
         <v>15.56</v>
       </c>
       <c r="CT5" t="n">
-        <v>4.299999999999997</v>
+        <v>4.259999999999983</v>
       </c>
       <c r="CU5" t="n">
         <v>25.27</v>
@@ -3018,7 +3018,7 @@
         <v>10.79</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.5500000000000007</v>
+        <v>0.1900000000000008</v>
       </c>
       <c r="DD5" t="n">
         <v>26.44</v>
@@ -3027,7 +3027,7 @@
         <v>17.6</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.279999999999998</v>
+        <v>0.02999999999998915</v>
       </c>
       <c r="DG5" t="n">
         <v>27.68</v>
@@ -3045,7 +3045,7 @@
         <v>4.96</v>
       </c>
       <c r="DL5" t="n">
-        <v>20.15000000000001</v>
+        <v>10.27000000000001</v>
       </c>
       <c r="DM5" t="n">
         <v>113.24</v>
@@ -3054,7 +3054,7 @@
         <v>12.82</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.54</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="DP5" t="n">
         <v>2.79</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.100000000000001</v>
+        <v>0.119999999999995</v>
       </c>
       <c r="C6" t="n">
         <v>36.15</v>
@@ -3208,7 +3208,7 @@
         <v>21.41</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2600000000000011</v>
+        <v>0.09000000000000177</v>
       </c>
       <c r="I6" t="n">
         <v>10.67</v>
@@ -3217,7 +3217,7 @@
         <v>18.38</v>
       </c>
       <c r="K6" t="n">
-        <v>1.620000000000001</v>
+        <v>0.8499999999999983</v>
       </c>
       <c r="L6" t="n">
         <v>12.38</v>
@@ -3226,7 +3226,7 @@
         <v>11.63</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03</v>
+        <v>3.469446951953614e-18</v>
       </c>
       <c r="O6" t="n">
         <v>0.1</v>
@@ -3235,7 +3235,7 @@
         <v>33.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.11999999999999</v>
+        <v>1.539999999999988</v>
       </c>
       <c r="R6" t="n">
         <v>108.26</v>
@@ -3244,7 +3244,7 @@
         <v>9.99</v>
       </c>
       <c r="T6" t="n">
-        <v>2.77</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="U6" t="n">
         <v>18.49</v>
@@ -3262,7 +3262,7 @@
         <v>15.97</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.09</v>
+        <v>0.02000000000000091</v>
       </c>
       <c r="AA6" t="n">
         <v>15.19</v>
@@ -3280,7 +3280,7 @@
         <v>22.66</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.2099999999999995</v>
       </c>
       <c r="AG6" t="n">
         <v>4.44</v>
@@ -3289,7 +3289,7 @@
         <v>18.66</v>
       </c>
       <c r="AI6" t="n">
-        <v>269.9000000000001</v>
+        <v>245.0900000000005</v>
       </c>
       <c r="AJ6" t="n">
         <v>1863.82</v>
@@ -3298,7 +3298,7 @@
         <v>12.96</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.9399999999999995</v>
+        <v>0.1099999999999997</v>
       </c>
       <c r="AM6" t="n">
         <v>6.28</v>
@@ -3307,7 +3307,7 @@
         <v>17.17</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.619999999999997</v>
+        <v>5.629999999999988</v>
       </c>
       <c r="AP6" t="n">
         <v>59.05</v>
@@ -3316,7 +3316,7 @@
         <v>12.19</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.649999999999999</v>
+        <v>0.329999999999985</v>
       </c>
       <c r="AS6" t="n">
         <v>42.69</v>
@@ -3334,7 +3334,7 @@
         <v>12.64</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.170000000000002</v>
+        <v>0.6500000000000021</v>
       </c>
       <c r="AY6" t="n">
         <v>28.64</v>
@@ -3343,7 +3343,7 @@
         <v>26.43</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="BB6" t="n">
         <v>8.98</v>
@@ -3352,7 +3352,7 @@
         <v>5.85</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.05999999999999993</v>
       </c>
       <c r="BE6" t="n">
         <v>0.99</v>
@@ -3361,7 +3361,7 @@
         <v>-4.63</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.02</v>
+        <v>0.3</v>
       </c>
       <c r="BH6" t="n">
         <v>14.8</v>
@@ -3379,7 +3379,7 @@
         <v>12.05</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.3400000000000003</v>
+        <v>0.1600000000000005</v>
       </c>
       <c r="BN6" t="n">
         <v>3.53</v>
@@ -3388,7 +3388,7 @@
         <v>27.3</v>
       </c>
       <c r="BP6" t="n">
-        <v>6.950000000000003</v>
+        <v>5.669999999999972</v>
       </c>
       <c r="BQ6" t="n">
         <v>56.18</v>
@@ -3397,7 +3397,7 @@
         <v>17.65</v>
       </c>
       <c r="BS6" t="n">
-        <v>39.94</v>
+        <v>26.09999999999985</v>
       </c>
       <c r="BT6" t="n">
         <v>250.48</v>
@@ -3406,7 +3406,7 @@
         <v>10.29</v>
       </c>
       <c r="BV6" t="n">
-        <v>9.329999999999998</v>
+        <v>3.959999999999996</v>
       </c>
       <c r="BW6" t="n">
         <v>94.70999999999999</v>
@@ -3415,7 +3415,7 @@
         <v>38.1</v>
       </c>
       <c r="BY6" t="n">
-        <v>12.78</v>
+        <v>5.430000000000005</v>
       </c>
       <c r="BZ6" t="n">
         <v>74.3</v>
@@ -3433,7 +3433,7 @@
         <v>8.81</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.890000000000001</v>
+        <v>1.340000000000002</v>
       </c>
       <c r="CF6" t="n">
         <v>74.2</v>
@@ -3442,7 +3442,7 @@
         <v>31.94</v>
       </c>
       <c r="CH6" t="n">
-        <v>27.29999999999998</v>
+        <v>15.29999999999992</v>
       </c>
       <c r="CI6" t="n">
         <v>163.83</v>
@@ -3451,7 +3451,7 @@
         <v>1.38</v>
       </c>
       <c r="CK6" t="n">
-        <v>11.31999999999999</v>
+        <v>8.83999999999995</v>
       </c>
       <c r="CL6" t="n">
         <v>72.16</v>
@@ -3460,7 +3460,7 @@
         <v>7.42</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.180000000000001</v>
+        <v>0.03000000000000081</v>
       </c>
       <c r="CO6" t="n">
         <v>8.51</v>
@@ -3469,7 +3469,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.129999999999999</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="CR6" t="n">
         <v>31.35</v>
@@ -3487,7 +3487,7 @@
         <v>11.19</v>
       </c>
       <c r="CW6" t="n">
-        <v>13.66</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="CX6" t="n">
         <v>77.08</v>
@@ -3496,7 +3496,7 @@
         <v>6.73</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.14</v>
+        <v>0.6599999999999997</v>
       </c>
       <c r="DA6" t="n">
         <v>7.48</v>
@@ -3505,7 +3505,7 @@
         <v>7.55</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.789999999999999</v>
+        <v>2.669999999999995</v>
       </c>
       <c r="DD6" t="n">
         <v>31.97</v>
@@ -3514,7 +3514,7 @@
         <v>16.79</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.289999999999996</v>
+        <v>1.990000000000013</v>
       </c>
       <c r="DG6" t="n">
         <v>33.63</v>
@@ -3523,7 +3523,7 @@
         <v>13.54</v>
       </c>
       <c r="DI6" t="n">
-        <v>8.730000000000004</v>
+        <v>5.930000000000014</v>
       </c>
       <c r="DJ6" t="n">
         <v>56.53</v>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3699999999999974</v>
+        <v>0.2500000000000024</v>
       </c>
       <c r="C7" t="n">
         <v>41.63</v>
@@ -3686,7 +3686,7 @@
         <v>10.73</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3100000000000023</v>
+        <v>0.0699999999999861</v>
       </c>
       <c r="F7" t="n">
         <v>121.24</v>
@@ -3695,7 +3695,7 @@
         <v>16.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.629999999999999</v>
+        <v>0.9799999999999944</v>
       </c>
       <c r="I7" t="n">
         <v>12.77</v>
@@ -3713,7 +3713,7 @@
         <v>12.19</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.009999999999999992</v>
       </c>
       <c r="O7" t="n">
         <v>0.13</v>
@@ -3731,7 +3731,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="U7" t="n">
         <v>21.08</v>
@@ -3740,7 +3740,7 @@
         <v>-5.87</v>
       </c>
       <c r="W7" t="n">
-        <v>8.719999999999999</v>
+        <v>6.719999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>69.14</v>
@@ -3758,7 +3758,7 @@
         <v>17.14</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.989999999999998</v>
+        <v>2.190000000000006</v>
       </c>
       <c r="AD7" t="n">
         <v>28.43</v>
@@ -3767,7 +3767,7 @@
         <v>18.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2300000000000004</v>
+        <v>0.02000000000000091</v>
       </c>
       <c r="AG7" t="n">
         <v>5.01</v>
@@ -3785,7 +3785,7 @@
         <v>12.74</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.8900000000000006</v>
+        <v>0.6700000000000013</v>
       </c>
       <c r="AM7" t="n">
         <v>7.49</v>
@@ -3803,7 +3803,7 @@
         <v>13.32</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.100000000000001</v>
+        <v>0.770000000000016</v>
       </c>
       <c r="AS7" t="n">
         <v>48.95</v>
@@ -3812,7 +3812,7 @@
         <v>3.39</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.09</v>
+        <v>0.8099999999999998</v>
       </c>
       <c r="AV7" t="n">
         <v>7.32</v>
@@ -3821,7 +3821,7 @@
         <v>11.92</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.279999999999997</v>
+        <v>0.6299999999999948</v>
       </c>
       <c r="AY7" t="n">
         <v>32.86</v>
@@ -3830,7 +3830,7 @@
         <v>27.29</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.539999999999999</v>
+        <v>0.04999999999999893</v>
       </c>
       <c r="BB7" t="n">
         <v>10.44</v>
@@ -3857,7 +3857,7 @@
         <v>20.11</v>
       </c>
       <c r="BJ7" t="n">
-        <v>11.27000000000001</v>
+        <v>2.29000000000002</v>
       </c>
       <c r="BK7" t="n">
         <v>93.45999999999999</v>
@@ -3866,7 +3866,7 @@
         <v>19.13</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.2199999999999998</v>
+        <v>0.0599999999999993</v>
       </c>
       <c r="BN7" t="n">
         <v>3.97</v>
@@ -3893,7 +3893,7 @@
         <v>10.14</v>
       </c>
       <c r="BV7" t="n">
-        <v>9.170000000000002</v>
+        <v>1.25000000000001</v>
       </c>
       <c r="BW7" t="n">
         <v>111.85</v>
@@ -3902,7 +3902,7 @@
         <v>43.56</v>
       </c>
       <c r="BY7" t="n">
-        <v>11.09</v>
+        <v>1.91</v>
       </c>
       <c r="BZ7" t="n">
         <v>86.87</v>
@@ -3911,7 +3911,7 @@
         <v>13.59</v>
       </c>
       <c r="CB7" t="n">
-        <v>2.430000000000001</v>
+        <v>2.150000000000007</v>
       </c>
       <c r="CC7" t="n">
         <v>14.82</v>
@@ -3920,7 +3920,7 @@
         <v>30.26</v>
       </c>
       <c r="CE7" t="n">
-        <v>7.609999999999989</v>
+        <v>1.039999999999984</v>
       </c>
       <c r="CF7" t="n">
         <v>78.31</v>
@@ -3929,7 +3929,7 @@
         <v>30.23</v>
       </c>
       <c r="CH7" t="n">
-        <v>27.06999999999999</v>
+        <v>5.770000000000039</v>
       </c>
       <c r="CI7" t="n">
         <v>184.1</v>
@@ -3947,7 +3947,7 @@
         <v>5.9</v>
       </c>
       <c r="CN7" t="n">
-        <v>1.279999999999999</v>
+        <v>0.8599999999999955</v>
       </c>
       <c r="CO7" t="n">
         <v>10.06</v>
@@ -3965,7 +3965,7 @@
         <v>16.34</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.669999999999995</v>
+        <v>2.669999999999966</v>
       </c>
       <c r="CU7" t="n">
         <v>36.76</v>
@@ -3974,7 +3974,7 @@
         <v>12.65</v>
       </c>
       <c r="CW7" t="n">
-        <v>13.49000000000001</v>
+        <v>0.9700000000000113</v>
       </c>
       <c r="CX7" t="n">
         <v>90.17</v>
@@ -4019,7 +4019,7 @@
         <v>10.72</v>
       </c>
       <c r="DL7" t="n">
-        <v>21.32000000000002</v>
+        <v>11.3600000000001</v>
       </c>
       <c r="DM7" t="n">
         <v>159.38</v>
@@ -4028,7 +4028,7 @@
         <v>11.33</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.54</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="DP7" t="n">
         <v>4.42</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6899999999999977</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="C8" t="n">
         <v>47.47</v>
@@ -4173,7 +4173,7 @@
         <v>10.21</v>
       </c>
       <c r="E8" t="n">
-        <v>4.309999999999988</v>
+        <v>3.67000000000002</v>
       </c>
       <c r="F8" t="n">
         <v>141.96</v>
@@ -4191,7 +4191,7 @@
         <v>10.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.110000000000001</v>
+        <v>0.4000000000000041</v>
       </c>
       <c r="L8" t="n">
         <v>16.4</v>
@@ -4200,7 +4200,7 @@
         <v>10.07</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01000000000000003</v>
+        <v>3.469446951953614e-17</v>
       </c>
       <c r="O8" t="n">
         <v>0.14</v>
@@ -4209,7 +4209,7 @@
         <v>20.21</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.779999999999987</v>
+        <v>1.229999999999976</v>
       </c>
       <c r="R8" t="n">
         <v>144.33</v>
@@ -4218,7 +4218,7 @@
         <v>9.16</v>
       </c>
       <c r="T8" t="n">
-        <v>4.060000000000002</v>
+        <v>0.1600000000000019</v>
       </c>
       <c r="U8" t="n">
         <v>24.61</v>
@@ -4236,7 +4236,7 @@
         <v>14.44</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1700000000000053</v>
+        <v>0.1300000000000133</v>
       </c>
       <c r="AA8" t="n">
         <v>20.87</v>
@@ -4254,7 +4254,7 @@
         <v>18.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.1399999999999979</v>
       </c>
       <c r="AG8" t="n">
         <v>6.07</v>
@@ -4281,7 +4281,7 @@
         <v>22.63</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.33</v>
+        <v>2.729999999999992</v>
       </c>
       <c r="AP8" t="n">
         <v>78.19</v>
@@ -4290,7 +4290,7 @@
         <v>8.94</v>
       </c>
       <c r="AR8" t="n">
-        <v>6.170000000000002</v>
+        <v>1.769999999999997</v>
       </c>
       <c r="AS8" t="n">
         <v>55.3</v>
@@ -4299,7 +4299,7 @@
         <v>2.21</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.9799999999999995</v>
+        <v>0.02999999999999958</v>
       </c>
       <c r="AV8" t="n">
         <v>8.17</v>
@@ -4308,7 +4308,7 @@
         <v>7.11</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.879999999999999</v>
+        <v>0.04000000000000803</v>
       </c>
       <c r="AY8" t="n">
         <v>37.69</v>
@@ -4317,7 +4317,7 @@
         <v>24.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.51</v>
+        <v>1.460000000000001</v>
       </c>
       <c r="BB8" t="n">
         <v>12.19</v>
@@ -4326,7 +4326,7 @@
         <v>5.03</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.09999999999999989</v>
+        <v>0.00999999999999927</v>
       </c>
       <c r="BE8" t="n">
         <v>1.28</v>
@@ -4335,7 +4335,7 @@
         <v>-2.27</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.6899999999999991</v>
+        <v>0.2099999999999995</v>
       </c>
       <c r="BH8" t="n">
         <v>19.66</v>
@@ -4344,7 +4344,7 @@
         <v>18.23</v>
       </c>
       <c r="BJ8" t="n">
-        <v>9.77000000000001</v>
+        <v>2.899999999999949</v>
       </c>
       <c r="BK8" t="n">
         <v>108.62</v>
@@ -4353,7 +4353,7 @@
         <v>10.04</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.2600000000000021</v>
       </c>
       <c r="BN8" t="n">
         <v>4.56</v>
@@ -4362,7 +4362,7 @@
         <v>36.43</v>
       </c>
       <c r="BP8" t="n">
-        <v>7.280000000000001</v>
+        <v>1.820000000000021</v>
       </c>
       <c r="BQ8" t="n">
         <v>76.26000000000001</v>
@@ -4407,7 +4407,7 @@
         <v>24.3</v>
       </c>
       <c r="CE8" t="n">
-        <v>11.41000000000001</v>
+        <v>0.08000000000003382</v>
       </c>
       <c r="CF8" t="n">
         <v>107.98</v>
@@ -4443,7 +4443,7 @@
         <v>8.25</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.3699999999999939</v>
+        <v>0.1399999999999899</v>
       </c>
       <c r="CR8" t="n">
         <v>41.9</v>
@@ -4479,7 +4479,7 @@
         <v>9.15</v>
       </c>
       <c r="DC8" t="n">
-        <v>3.870000000000001</v>
+        <v>2.829999999999993</v>
       </c>
       <c r="DD8" t="n">
         <v>47.73</v>
@@ -4488,7 +4488,7 @@
         <v>35.55</v>
       </c>
       <c r="DF8" t="n">
-        <v>4.420000000000002</v>
+        <v>0.759999999999972</v>
       </c>
       <c r="DG8" t="n">
         <v>43.35</v>
@@ -4497,7 +4497,7 @@
         <v>9.99</v>
       </c>
       <c r="DI8" t="n">
-        <v>3.95000000000001</v>
+        <v>1.25000000000004</v>
       </c>
       <c r="DJ8" t="n">
         <v>77.59</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.950000000000003</v>
+        <v>4.300000000000005</v>
       </c>
       <c r="C9" t="n">
         <v>54.22</v>
@@ -4660,7 +4660,7 @@
         <v>10.13</v>
       </c>
       <c r="E9" t="n">
-        <v>12.31</v>
+        <v>0.1900000000000346</v>
       </c>
       <c r="F9" t="n">
         <v>162.46</v>
@@ -4687,7 +4687,7 @@
         <v>8.67</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009999999999999978</v>
+        <v>0.009999999999999874</v>
       </c>
       <c r="O9" t="n">
         <v>0.16</v>
@@ -4696,7 +4696,7 @@
         <v>13.09</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.52000000000001</v>
+        <v>10.05000000000009</v>
       </c>
       <c r="R9" t="n">
         <v>163.38</v>
@@ -4705,7 +4705,7 @@
         <v>7.02</v>
       </c>
       <c r="T9" t="n">
-        <v>2.699999999999996</v>
+        <v>1.079999999999992</v>
       </c>
       <c r="U9" t="n">
         <v>27.67</v>
@@ -4714,7 +4714,7 @@
         <v>-9.369999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4399999999999835</v>
+        <v>0.03999999999994949</v>
       </c>
       <c r="X9" t="n">
         <v>90.69</v>
@@ -4723,7 +4723,7 @@
         <v>13.91</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6899999999999937</v>
+        <v>0.06999999999996059</v>
       </c>
       <c r="AA9" t="n">
         <v>23.35</v>
@@ -4732,7 +4732,7 @@
         <v>18.71</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.539999999999999</v>
+        <v>0.2599999999999822</v>
       </c>
       <c r="AD9" t="n">
         <v>39.78</v>
@@ -4741,7 +4741,7 @@
         <v>23.48</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.3700000000000002</v>
+        <v>0.01000000000000081</v>
       </c>
       <c r="AG9" t="n">
         <v>6.99</v>
@@ -4750,7 +4750,7 @@
         <v>25.26</v>
       </c>
       <c r="AI9" t="n">
-        <v>304.75</v>
+        <v>233.7500000000008</v>
       </c>
       <c r="AJ9" t="n">
         <v>2804.79</v>
@@ -4759,7 +4759,7 @@
         <v>10.08</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1599999999999993</v>
+        <v>9.436895709313831e-16</v>
       </c>
       <c r="AM9" t="n">
         <v>9.91</v>
@@ -4768,7 +4768,7 @@
         <v>21.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.400000000000006</v>
+        <v>0.9700000000000077</v>
       </c>
       <c r="AP9" t="n">
         <v>87.81</v>
@@ -4786,7 +4786,7 @@
         <v>-0.23</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.1300000000000014</v>
+        <v>0.1000000000000018</v>
       </c>
       <c r="AV9" t="n">
         <v>8.970000000000001</v>
@@ -4795,7 +4795,7 @@
         <v>4.22</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.010000000000002</v>
+        <v>0.969999999999994</v>
       </c>
       <c r="AY9" t="n">
         <v>42.29</v>
@@ -4813,7 +4813,7 @@
         <v>5.98</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.01000000000000001</v>
+        <v>7.407269242420966e-16</v>
       </c>
       <c r="BE9" t="n">
         <v>1.45</v>
@@ -4822,7 +4822,7 @@
         <v>-7.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.020000000000003</v>
+        <v>0.4600000000000057</v>
       </c>
       <c r="BH9" t="n">
         <v>22.6</v>
@@ -4840,7 +4840,7 @@
         <v>18.38</v>
       </c>
       <c r="BM9" t="n">
-        <v>3.03</v>
+        <v>0.9099999999999966</v>
       </c>
       <c r="BN9" t="n">
         <v>5.65</v>
@@ -4858,7 +4858,7 @@
         <v>21.57</v>
       </c>
       <c r="BS9" t="n">
-        <v>40.94000000000005</v>
+        <v>31.06000000000017</v>
       </c>
       <c r="BT9" t="n">
         <v>384.98</v>
@@ -4867,7 +4867,7 @@
         <v>7.98</v>
       </c>
       <c r="BV9" t="n">
-        <v>3.329999999999979</v>
+        <v>0.5699999999999701</v>
       </c>
       <c r="BW9" t="n">
         <v>138.23</v>
@@ -4876,7 +4876,7 @@
         <v>39.61</v>
       </c>
       <c r="BY9" t="n">
-        <v>11.26000000000001</v>
+        <v>5.180000000000012</v>
       </c>
       <c r="BZ9" t="n">
         <v>109.64</v>
@@ -4894,7 +4894,7 @@
         <v>30.38</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.089999999999989</v>
+        <v>0.1299999999998996</v>
       </c>
       <c r="CF9" t="n">
         <v>98.47</v>
@@ -4903,7 +4903,7 @@
         <v>18.58</v>
       </c>
       <c r="CH9" t="n">
-        <v>27.62</v>
+        <v>12.85999999999988</v>
       </c>
       <c r="CI9" t="n">
         <v>226.43</v>
@@ -4912,7 +4912,7 @@
         <v>-8.23</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.090000000000011</v>
+        <v>0.3100000000000311</v>
       </c>
       <c r="CL9" t="n">
         <v>110.2</v>
@@ -4921,7 +4921,7 @@
         <v>4.81</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.52</v>
+        <v>0.439999999999992</v>
       </c>
       <c r="CO9" t="n">
         <v>13.33</v>
@@ -4930,7 +4930,7 @@
         <v>7.56</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.410000000000004</v>
+        <v>0.6200000000000403</v>
       </c>
       <c r="CR9" t="n">
         <v>47.79</v>
@@ -4939,7 +4939,7 @@
         <v>17.86</v>
       </c>
       <c r="CT9" t="n">
-        <v>4.340000000000003</v>
+        <v>0.6199999999999761</v>
       </c>
       <c r="CU9" t="n">
         <v>47.69</v>
@@ -4948,7 +4948,7 @@
         <v>11.16</v>
       </c>
       <c r="CW9" t="n">
-        <v>13.98</v>
+        <v>10.54000000000008</v>
       </c>
       <c r="CX9" t="n">
         <v>121.72</v>
@@ -4957,7 +4957,7 @@
         <v>7.03</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.5999999999999981</v>
+        <v>0.5599999999999945</v>
       </c>
       <c r="DA9" t="n">
         <v>11.49</v>
@@ -4966,7 +4966,7 @@
         <v>7.89</v>
       </c>
       <c r="DC9" t="n">
-        <v>5.199999999999996</v>
+        <v>1.329999999999995</v>
       </c>
       <c r="DD9" t="n">
         <v>54.51</v>
@@ -4975,7 +4975,7 @@
         <v>26.38</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.169999999999995</v>
+        <v>0.410000000000023</v>
       </c>
       <c r="DG9" t="n">
         <v>48.28</v>
@@ -4984,7 +4984,7 @@
         <v>10.12</v>
       </c>
       <c r="DI9" t="n">
-        <v>6.210000000000008</v>
+        <v>1.009999999999958</v>
       </c>
       <c r="DJ9" t="n">
         <v>87.75</v>
@@ -4993,7 +4993,7 @@
         <v>2.17</v>
       </c>
       <c r="DL9" t="n">
-        <v>21.82999999999998</v>
+        <v>12.8300000000001</v>
       </c>
       <c r="DM9" t="n">
         <v>205.05</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.93</v>
+        <v>0.6699999999999946</v>
       </c>
       <c r="C10" t="n">
         <v>59.36</v>
@@ -5147,7 +5147,7 @@
         <v>7.57</v>
       </c>
       <c r="E10" t="n">
-        <v>4.850000000000028</v>
+        <v>0.6599999999999668</v>
       </c>
       <c r="F10" t="n">
         <v>179.36</v>
@@ -5156,7 +5156,7 @@
         <v>17.08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07999999999999785</v>
+        <v>0.03999999999999892</v>
       </c>
       <c r="I10" t="n">
         <v>18.45</v>
@@ -5165,7 +5165,7 @@
         <v>11.47</v>
       </c>
       <c r="K10" t="n">
-        <v>2.289999999999999</v>
+        <v>1.370000000000003</v>
       </c>
       <c r="L10" t="n">
         <v>20.62</v>
@@ -5174,7 +5174,7 @@
         <v>6.59</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009999999999999981</v>
+        <v>3.469446951953614e-18</v>
       </c>
       <c r="O10" t="n">
         <v>0.18</v>
@@ -5201,7 +5201,7 @@
         <v>-5.47</v>
       </c>
       <c r="W10" t="n">
-        <v>1.030000000000019</v>
+        <v>0.01000000000009391</v>
       </c>
       <c r="X10" t="n">
         <v>102.35</v>
@@ -5210,7 +5210,7 @@
         <v>15.15</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.580000000000002</v>
+        <v>0.8000000000000661</v>
       </c>
       <c r="AA10" t="n">
         <v>26.23</v>
@@ -5219,7 +5219,7 @@
         <v>15.92</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.219999999999999</v>
+        <v>0.5600000000000143</v>
       </c>
       <c r="AD10" t="n">
         <v>42.91</v>
@@ -5228,7 +5228,7 @@
         <v>12.74</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.04999999999999868</v>
       </c>
       <c r="AG10" t="n">
         <v>7.94</v>
@@ -5237,7 +5237,7 @@
         <v>24.74</v>
       </c>
       <c r="AI10" t="n">
-        <v>298.3200000000002</v>
+        <v>11.31999999999999</v>
       </c>
       <c r="AJ10" t="n">
         <v>3126.38</v>
@@ -5246,7 +5246,7 @@
         <v>9.59</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.180000000000001</v>
+        <v>0.0199999999999998</v>
       </c>
       <c r="AM10" t="n">
         <v>11.08</v>
@@ -5255,7 +5255,7 @@
         <v>19.23</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.569999999999995</v>
+        <v>0.5999999999999872</v>
       </c>
       <c r="AP10" t="n">
         <v>99.25</v>
@@ -5264,7 +5264,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="AR10" t="n">
-        <v>6.460000000000008</v>
+        <v>5.260000000000048</v>
       </c>
       <c r="AS10" t="n">
         <v>66.75</v>
@@ -5273,7 +5273,7 @@
         <v>0.01</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.149999999999999</v>
+        <v>0.0199999999999976</v>
       </c>
       <c r="AV10" t="n">
         <v>9.9</v>
@@ -5282,7 +5282,7 @@
         <v>1.82</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.740000000000002</v>
+        <v>0.699999999999994</v>
       </c>
       <c r="AY10" t="n">
         <v>47.56</v>
@@ -5291,7 +5291,7 @@
         <v>21.82</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.069999999999999</v>
+        <v>0.229999999999998</v>
       </c>
       <c r="BB10" t="n">
         <v>15.96</v>
@@ -5300,7 +5300,7 @@
         <v>3.15</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="BE10" t="n">
         <v>1.66</v>
@@ -5354,7 +5354,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.890000000000002</v>
+        <v>0.5600000000000227</v>
       </c>
       <c r="BW10" t="n">
         <v>149.03</v>
@@ -5372,7 +5372,7 @@
         <v>11.87</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.140000000000001</v>
+        <v>0.2200000000000031</v>
       </c>
       <c r="CC10" t="n">
         <v>24.13</v>
@@ -5381,7 +5381,7 @@
         <v>33.68</v>
       </c>
       <c r="CE10" t="n">
-        <v>7.849999999999994</v>
+        <v>3.260000000000105</v>
       </c>
       <c r="CF10" t="n">
         <v>115.16</v>
@@ -5390,7 +5390,7 @@
         <v>16.87</v>
       </c>
       <c r="CH10" t="n">
-        <v>18.64999999999998</v>
+        <v>2.100000000000072</v>
       </c>
       <c r="CI10" t="n">
         <v>246.98</v>
@@ -5399,7 +5399,7 @@
         <v>-9.98</v>
       </c>
       <c r="CK10" t="n">
-        <v>12.56</v>
+        <v>10.5399999999999</v>
       </c>
       <c r="CL10" t="n">
         <v>125.14</v>
@@ -5408,7 +5408,7 @@
         <v>4.33</v>
       </c>
       <c r="CN10" t="n">
-        <v>1.49</v>
+        <v>0.240000000000002</v>
       </c>
       <c r="CO10" t="n">
         <v>14.91</v>
@@ -5435,7 +5435,7 @@
         <v>11.81</v>
       </c>
       <c r="CW10" t="n">
-        <v>13.3</v>
+        <v>0.1799999999999802</v>
       </c>
       <c r="CX10" t="n">
         <v>135.42</v>
@@ -5444,7 +5444,7 @@
         <v>6.04</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.350000000000003</v>
       </c>
       <c r="DA10" t="n">
         <v>13.15</v>
@@ -5462,7 +5462,7 @@
         <v>24.92</v>
       </c>
       <c r="DF10" t="n">
-        <v>5.119999999999997</v>
+        <v>0.440000000000017</v>
       </c>
       <c r="DG10" t="n">
         <v>53.04</v>
@@ -5471,7 +5471,7 @@
         <v>7.29</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.280000000000001</v>
+        <v>0.02000000000000313</v>
       </c>
       <c r="DJ10" t="n">
         <v>94.48999999999999</v>
@@ -5480,7 +5480,7 @@
         <v>2.6</v>
       </c>
       <c r="DL10" t="n">
-        <v>19.51000000000002</v>
+        <v>2.179999999999978</v>
       </c>
       <c r="DM10" t="n">
         <v>224.15</v>
@@ -5489,7 +5489,7 @@
         <v>6.79</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.3799999999999972</v>
       </c>
       <c r="DP10" t="n">
         <v>6.34</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.890000000000008</v>
+        <v>2.550000000000019</v>
       </c>
       <c r="C11" t="n">
         <v>67.01000000000001</v>
@@ -5634,7 +5634,7 @@
         <v>9.65</v>
       </c>
       <c r="E11" t="n">
-        <v>5.319999999999961</v>
+        <v>0.4699999999999331</v>
       </c>
       <c r="F11" t="n">
         <v>198.87</v>
@@ -5643,7 +5643,7 @@
         <v>16.74</v>
       </c>
       <c r="H11" t="n">
-        <v>1.340000000000004</v>
+        <v>1.140000000000009</v>
       </c>
       <c r="I11" t="n">
         <v>20.41</v>
@@ -5661,7 +5661,7 @@
         <v>6.21</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01000000000000004</v>
+        <v>4.85722573273506e-17</v>
       </c>
       <c r="O11" t="n">
         <v>0.19</v>
@@ -5670,7 +5670,7 @@
         <v>2.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.299999999999979</v>
+        <v>0.7399999999999769</v>
       </c>
       <c r="R11" t="n">
         <v>199.2</v>
@@ -5679,7 +5679,7 @@
         <v>6.53</v>
       </c>
       <c r="T11" t="n">
-        <v>29.48999999999999</v>
+        <v>27.92999999999995</v>
       </c>
       <c r="U11" t="n">
         <v>35.37</v>
@@ -5688,7 +5688,7 @@
         <v>-2.61</v>
       </c>
       <c r="W11" t="n">
-        <v>2.89999999999999</v>
+        <v>1.019999999999782</v>
       </c>
       <c r="X11" t="n">
         <v>114.43</v>
@@ -5697,7 +5697,7 @@
         <v>15.39</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.819999999999997</v>
+        <v>0.449999999999978</v>
       </c>
       <c r="AA11" t="n">
         <v>29.65</v>
@@ -5706,7 +5706,7 @@
         <v>17.64</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.350000000000001</v>
+        <v>0.3299999999999816</v>
       </c>
       <c r="AD11" t="n">
         <v>47.94</v>
@@ -5715,7 +5715,7 @@
         <v>13.39</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.15</v>
+        <v>0.5400000000000017</v>
       </c>
       <c r="AG11" t="n">
         <v>9.07</v>
@@ -5724,7 +5724,7 @@
         <v>19.88</v>
       </c>
       <c r="AI11" t="n">
-        <v>95.83999999999969</v>
+        <v>73.1999999999997</v>
       </c>
       <c r="AJ11" t="n">
         <v>3424.32</v>
@@ -5733,7 +5733,7 @@
         <v>8.67</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.5500000000000009</v>
+        <v>0.3099999999999958</v>
       </c>
       <c r="AM11" t="n">
         <v>12.58</v>
@@ -5742,7 +5742,7 @@
         <v>18.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.23999999999999</v>
+        <v>0.5300000000000051</v>
       </c>
       <c r="AP11" t="n">
         <v>110.61</v>
@@ -5760,7 +5760,7 @@
         <v>-0.52</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.51</v>
+        <v>0.3000000000000082</v>
       </c>
       <c r="AV11" t="n">
         <v>11.06</v>
@@ -5769,7 +5769,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.789999999999999</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AY11" t="n">
         <v>51.98</v>
@@ -5778,7 +5778,7 @@
         <v>18.74</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.930000000000001</v>
+        <v>0.1700000000000081</v>
       </c>
       <c r="BB11" t="n">
         <v>17.81</v>
@@ -5787,7 +5787,7 @@
         <v>7.71</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3800000000000001</v>
+        <v>0.0300000000000003</v>
       </c>
       <c r="BE11" t="n">
         <v>1.84</v>
@@ -5796,7 +5796,7 @@
         <v>-8.44</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.809999999999999</v>
+        <v>1.370000000000015</v>
       </c>
       <c r="BH11" t="n">
         <v>26.99</v>
@@ -5805,7 +5805,7 @@
         <v>13.77</v>
       </c>
       <c r="BJ11" t="n">
-        <v>14.18000000000001</v>
+        <v>5.259999999999971</v>
       </c>
       <c r="BK11" t="n">
         <v>156.14</v>
@@ -5814,7 +5814,7 @@
         <v>14.47</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.7699999999999991</v>
+        <v>0.009999999999999287</v>
       </c>
       <c r="BN11" t="n">
         <v>6.11</v>
@@ -5823,7 +5823,7 @@
         <v>37.21</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.570000000000009</v>
+        <v>0.2300000000000055</v>
       </c>
       <c r="BQ11" t="n">
         <v>110.32</v>
@@ -5832,7 +5832,7 @@
         <v>24.28</v>
       </c>
       <c r="BS11" t="n">
-        <v>3.880000000000045</v>
+        <v>0.3000000000002168</v>
       </c>
       <c r="BT11" t="n">
         <v>469.33</v>
@@ -5841,7 +5841,7 @@
         <v>6.62</v>
       </c>
       <c r="BV11" t="n">
-        <v>9.800000000000029</v>
+        <v>4.229999999999959</v>
       </c>
       <c r="BW11" t="n">
         <v>164.65</v>
@@ -5850,7 +5850,7 @@
         <v>23.4</v>
       </c>
       <c r="BY11" t="n">
-        <v>8.43</v>
+        <v>4.16000000000002</v>
       </c>
       <c r="BZ11" t="n">
         <v>139.76</v>
@@ -5859,7 +5859,7 @@
         <v>10.08</v>
       </c>
       <c r="CB11" t="n">
-        <v>3.049999999999997</v>
+        <v>0.46999999999999</v>
       </c>
       <c r="CC11" t="n">
         <v>24.98</v>
@@ -5868,7 +5868,7 @@
         <v>23.68</v>
       </c>
       <c r="CE11" t="n">
-        <v>11.25</v>
+        <v>3.400000000000006</v>
       </c>
       <c r="CF11" t="n">
         <v>127.26</v>
@@ -5895,7 +5895,7 @@
         <v>3.99</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.7599999999999978</v>
+        <v>0.2799999999999938</v>
       </c>
       <c r="CO11" t="n">
         <v>16.4</v>
@@ -5904,7 +5904,7 @@
         <v>6.49</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.2800000000000083</v>
       </c>
       <c r="CR11" t="n">
         <v>62.21</v>
@@ -5913,7 +5913,7 @@
         <v>17.77</v>
       </c>
       <c r="CT11" t="n">
-        <v>4.999999999999989</v>
+        <v>0.4699999999999951</v>
       </c>
       <c r="CU11" t="n">
         <v>59.85</v>
@@ -5922,7 +5922,7 @@
         <v>12.72</v>
       </c>
       <c r="CW11" t="n">
-        <v>6.079999999999998</v>
+        <v>5.720000000000038</v>
       </c>
       <c r="CX11" t="n">
         <v>151.94</v>
@@ -5931,7 +5931,7 @@
         <v>7.76</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.759999999999998</v>
+        <v>0.059999999999992</v>
       </c>
       <c r="DA11" t="n">
         <v>14.53</v>
@@ -5940,7 +5940,7 @@
         <v>7.81</v>
       </c>
       <c r="DC11" t="n">
-        <v>3.199999999999996</v>
+        <v>3.199999999999968</v>
       </c>
       <c r="DD11" t="n">
         <v>67.68000000000001</v>
@@ -5949,7 +5949,7 @@
         <v>26.44</v>
       </c>
       <c r="DF11" t="n">
-        <v>5.560000000000013</v>
+        <v>0.4400000000000155</v>
       </c>
       <c r="DG11" t="n">
         <v>58.78</v>
@@ -5958,7 +5958,7 @@
         <v>7.74</v>
       </c>
       <c r="DI11" t="n">
-        <v>9.479999999999988</v>
+        <v>4.879999999999979</v>
       </c>
       <c r="DJ11" t="n">
         <v>100.33</v>
@@ -5967,7 +5967,7 @@
         <v>6.32</v>
       </c>
       <c r="DL11" t="n">
-        <v>18.10999999999999</v>
+        <v>15.93000000000001</v>
       </c>
       <c r="DM11" t="n">
         <v>242.11</v>
@@ -6121,7 +6121,7 @@
         <v>14.04</v>
       </c>
       <c r="E12" t="n">
-        <v>9.27000000000001</v>
+        <v>2.54000000000025</v>
       </c>
       <c r="F12" t="n">
         <v>228.32</v>
@@ -6130,7 +6130,7 @@
         <v>18.39</v>
       </c>
       <c r="H12" t="n">
-        <v>3.12</v>
+        <v>0.51999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>24.25</v>
@@ -6139,7 +6139,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>3.76</v>
+        <v>0.5799999999999998</v>
       </c>
       <c r="L12" t="n">
         <v>27.3</v>
@@ -6148,7 +6148,7 @@
         <v>6.97</v>
       </c>
       <c r="N12" t="n">
-        <v>0.009999999999999978</v>
+        <v>0.009999999999999811</v>
       </c>
       <c r="O12" t="n">
         <v>0.22</v>
@@ -6157,7 +6157,7 @@
         <v>12.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.88000000000001</v>
+        <v>3.080000000000098</v>
       </c>
       <c r="R12" t="n">
         <v>227.01</v>
@@ -6175,7 +6175,7 @@
         <v>-5.27</v>
       </c>
       <c r="W12" t="n">
-        <v>5.49</v>
+        <v>0.7200000000000391</v>
       </c>
       <c r="X12" t="n">
         <v>128.68</v>
@@ -6193,7 +6193,7 @@
         <v>16.95</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.49</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="AD12" t="n">
         <v>55.62</v>
@@ -6211,7 +6211,7 @@
         <v>22.61</v>
       </c>
       <c r="AI12" t="n">
-        <v>178.6600000000001</v>
+        <v>82.82000000000042</v>
       </c>
       <c r="AJ12" t="n">
         <v>3874.48</v>
@@ -6229,7 +6229,7 @@
         <v>16.05</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>3.460000000000009</v>
       </c>
       <c r="AP12" t="n">
         <v>129.23</v>
@@ -6238,7 +6238,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.770000000000005</v>
+        <v>1.600000000000018</v>
       </c>
       <c r="AS12" t="n">
         <v>84.27</v>
@@ -6247,7 +6247,7 @@
         <v>2.97</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.38</v>
+        <v>0.1699999999999955</v>
       </c>
       <c r="AV12" t="n">
         <v>13.13</v>
@@ -6256,7 +6256,7 @@
         <v>2.93</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.23</v>
+        <v>4.29000000000001</v>
       </c>
       <c r="AY12" t="n">
         <v>61.35</v>
@@ -6265,7 +6265,7 @@
         <v>15.08</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.12</v>
+        <v>0.1899999999999991</v>
       </c>
       <c r="BB12" t="n">
         <v>20.81</v>
@@ -6274,7 +6274,7 @@
         <v>6.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.18</v>
+        <v>0.1199999999999994</v>
       </c>
       <c r="BE12" t="n">
         <v>2.16</v>
@@ -6283,7 +6283,7 @@
         <v>-15.62</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.170000000000001</v>
+        <v>0.3600000000000019</v>
       </c>
       <c r="BH12" t="n">
         <v>29.03</v>
@@ -6292,7 +6292,7 @@
         <v>13.64</v>
       </c>
       <c r="BJ12" t="n">
-        <v>12.97999999999999</v>
+        <v>1.02999999999999</v>
       </c>
       <c r="BK12" t="n">
         <v>177.33</v>
@@ -6301,7 +6301,7 @@
         <v>17.76</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.08000000000000096</v>
+        <v>0.06000000000000238</v>
       </c>
       <c r="BN12" t="n">
         <v>8.529999999999999</v>
@@ -6310,7 +6310,7 @@
         <v>52.26</v>
       </c>
       <c r="BP12" t="n">
-        <v>7.519999999999991</v>
+        <v>4.589999999999963</v>
       </c>
       <c r="BQ12" t="n">
         <v>122.73</v>
@@ -6319,7 +6319,7 @@
         <v>23.69</v>
       </c>
       <c r="BS12" t="n">
-        <v>33.93999999999999</v>
+        <v>27.36999999999938</v>
       </c>
       <c r="BT12" t="n">
         <v>533.16</v>
@@ -6328,7 +6328,7 @@
         <v>9.52</v>
       </c>
       <c r="BV12" t="n">
-        <v>27.81</v>
+        <v>1.959999999999954</v>
       </c>
       <c r="BW12" t="n">
         <v>184.68</v>
@@ -6337,7 +6337,7 @@
         <v>13.74</v>
       </c>
       <c r="BY12" t="n">
-        <v>19.68</v>
+        <v>2.929999999999961</v>
       </c>
       <c r="BZ12" t="n">
         <v>165.38</v>
@@ -6346,7 +6346,7 @@
         <v>9.58</v>
       </c>
       <c r="CB12" t="n">
-        <v>3.57</v>
+        <v>0.5200000000000027</v>
       </c>
       <c r="CC12" t="n">
         <v>32.28</v>
@@ -6355,7 +6355,7 @@
         <v>27.18</v>
       </c>
       <c r="CE12" t="n">
-        <v>6.36000000000001</v>
+        <v>2.960000000000004</v>
       </c>
       <c r="CF12" t="n">
         <v>154.89</v>
@@ -6364,7 +6364,7 @@
         <v>23.43</v>
       </c>
       <c r="CH12" t="n">
-        <v>46.08999999999999</v>
+        <v>4.369999999999949</v>
       </c>
       <c r="CI12" t="n">
         <v>251.46</v>
@@ -6391,7 +6391,7 @@
         <v>3.61</v>
       </c>
       <c r="CQ12" t="n">
-        <v>7.190000000000001</v>
+        <v>5.969999999999987</v>
       </c>
       <c r="CR12" t="n">
         <v>69.33</v>
@@ -6400,7 +6400,7 @@
         <v>16.91</v>
       </c>
       <c r="CT12" t="n">
-        <v>8.75</v>
+        <v>0.2600000000000202</v>
       </c>
       <c r="CU12" t="n">
         <v>72.83</v>
@@ -6409,7 +6409,7 @@
         <v>13.9</v>
       </c>
       <c r="CW12" t="n">
-        <v>18.88</v>
+        <v>0.6400000000000041</v>
       </c>
       <c r="CX12" t="n">
         <v>172.59</v>
@@ -6418,7 +6418,7 @@
         <v>7.61</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.06000000000000094</v>
+        <v>8.944234242136417e-15</v>
       </c>
       <c r="DA12" t="n">
         <v>16.57</v>
@@ -6427,7 +6427,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="DC12" t="n">
-        <v>3.420000000000002</v>
+        <v>0.220000000000006</v>
       </c>
       <c r="DD12" t="n">
         <v>76.5</v>
@@ -6445,7 +6445,7 @@
         <v>7.73</v>
       </c>
       <c r="DI12" t="n">
-        <v>7.240000000000011</v>
+        <v>0.04000000000002402</v>
       </c>
       <c r="DJ12" t="n">
         <v>109.43</v>
@@ -6454,7 +6454,7 @@
         <v>3.11</v>
       </c>
       <c r="DL12" t="n">
-        <v>23.83000000000001</v>
+        <v>5.72000000000002</v>
       </c>
       <c r="DM12" t="n">
         <v>266.54</v>
@@ -6463,7 +6463,7 @@
         <v>7.69</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.1699999999999996</v>
+        <v>0.01999999999999919</v>
       </c>
       <c r="DP12" t="n">
         <v>7.93</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.940000000000001</v>
+        <v>4.860000000000031</v>
       </c>
       <c r="C13" t="n">
         <v>10.68</v>
@@ -6608,7 +6608,7 @@
         <v>5.88</v>
       </c>
       <c r="E13" t="n">
-        <v>22.86</v>
+        <v>3.149999999999641</v>
       </c>
       <c r="F13" t="n">
         <v>37.92</v>
@@ -6617,7 +6617,7 @@
         <v>19.41</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>0.04000000000000403</v>
       </c>
       <c r="I13" t="n">
         <v>2.84</v>
@@ -6626,7 +6626,7 @@
         <v>-9.01</v>
       </c>
       <c r="K13" t="n">
-        <v>2.86</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="L13" t="n">
         <v>3.89</v>
@@ -6635,7 +6635,7 @@
         <v>3.43</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03</v>
+        <v>1.214306433183765e-16</v>
       </c>
       <c r="O13" t="n">
         <v>0.02</v>
@@ -6644,7 +6644,7 @@
         <v>-42.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.94</v>
+        <v>2.479999999999961</v>
       </c>
       <c r="R13" t="n">
         <v>34.74</v>
@@ -6662,7 +6662,7 @@
         <v>-15.68</v>
       </c>
       <c r="W13" t="n">
-        <v>10.29</v>
+        <v>0.769999999999911</v>
       </c>
       <c r="X13" t="n">
         <v>20.2</v>
@@ -6671,7 +6671,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.55</v>
+        <v>1.229999999999992</v>
       </c>
       <c r="AA13" t="n">
         <v>5.13</v>
@@ -6680,7 +6680,7 @@
         <v>8.58</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.01</v>
+        <v>0.4300000000000039</v>
       </c>
       <c r="AD13" t="n">
         <v>8.039999999999999</v>
@@ -6689,7 +6689,7 @@
         <v>23.79</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6699999999999997</v>
+        <v>0.09999999999999912</v>
       </c>
       <c r="AG13" t="n">
         <v>1.37</v>
@@ -6698,7 +6698,7 @@
         <v>2.33</v>
       </c>
       <c r="AI13" t="n">
-        <v>321.42</v>
+        <v>59.93999999999949</v>
       </c>
       <c r="AJ13" t="n">
         <v>600.92</v>
@@ -6707,7 +6707,7 @@
         <v>4.91</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.5100000000000042</v>
       </c>
       <c r="AM13" t="n">
         <v>1.72</v>
@@ -6716,7 +6716,7 @@
         <v>-12.38</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.27</v>
+        <v>1.509999999999991</v>
       </c>
       <c r="AP13" t="n">
         <v>17.13</v>
@@ -6725,7 +6725,7 @@
         <v>14.23</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.029999999999999</v>
+        <v>0.05999999999995786</v>
       </c>
       <c r="AS13" t="n">
         <v>10.24</v>
@@ -6734,7 +6734,7 @@
         <v>-17.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.31</v>
+        <v>0.2700000000000047</v>
       </c>
       <c r="AV13" t="n">
         <v>1.39</v>
@@ -6743,7 +6743,7 @@
         <v>1.08</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.549999999999999</v>
+        <v>0.1099999999999977</v>
       </c>
       <c r="AY13" t="n">
         <v>10.52</v>
@@ -6752,7 +6752,7 @@
         <v>13.92</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.88</v>
+        <v>1.310000000000003</v>
       </c>
       <c r="BB13" t="n">
         <v>2.22</v>
@@ -6761,7 +6761,7 @@
         <v>4.61</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.18</v>
+        <v>0.0300000000000003</v>
       </c>
       <c r="BE13" t="n">
         <v>0.16</v>
@@ -6770,7 +6770,7 @@
         <v>-9.17</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.96</v>
+        <v>0.0699999999999954</v>
       </c>
       <c r="BH13" t="n">
         <v>3.86</v>
@@ -6779,7 +6779,7 @@
         <v>-3.06</v>
       </c>
       <c r="BJ13" t="n">
-        <v>14.6</v>
+        <v>0.5900000000000201</v>
       </c>
       <c r="BK13" t="n">
         <v>37.9</v>
@@ -6788,7 +6788,7 @@
         <v>39.56</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.3699999999999954</v>
       </c>
       <c r="BN13" t="n">
         <v>1.64</v>
@@ -6797,7 +6797,7 @@
         <v>32.67</v>
       </c>
       <c r="BP13" t="n">
-        <v>7.509999999999998</v>
+        <v>1.560000000000016</v>
       </c>
       <c r="BQ13" t="n">
         <v>24.16</v>
@@ -6806,7 +6806,7 @@
         <v>34.37</v>
       </c>
       <c r="BS13" t="n">
-        <v>47.72000000000001</v>
+        <v>13.78000000000002</v>
       </c>
       <c r="BT13" t="n">
         <v>84.37</v>
@@ -6815,7 +6815,7 @@
         <v>4.74</v>
       </c>
       <c r="BV13" t="n">
-        <v>11.24</v>
+        <v>4.490000000000065</v>
       </c>
       <c r="BW13" t="n">
         <v>29.31</v>
@@ -6824,7 +6824,7 @@
         <v>5.38</v>
       </c>
       <c r="BY13" t="n">
-        <v>11.88</v>
+        <v>0.6300000000000008</v>
       </c>
       <c r="BZ13" t="n">
         <v>20.95</v>
@@ -6833,7 +6833,7 @@
         <v>6.46</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.98</v>
+        <v>0.4199999999999917</v>
       </c>
       <c r="CC13" t="n">
         <v>3.57</v>
@@ -6842,7 +6842,7 @@
         <v>0.19</v>
       </c>
       <c r="CE13" t="n">
-        <v>12.61</v>
+        <v>0.329999999999981</v>
       </c>
       <c r="CF13" t="n">
         <v>24.91</v>
@@ -6851,7 +6851,7 @@
         <v>-2.17</v>
       </c>
       <c r="CH13" t="n">
-        <v>35.16999999999999</v>
+        <v>9.940000000000019</v>
       </c>
       <c r="CI13" t="n">
         <v>40.82</v>
@@ -6860,7 +6860,7 @@
         <v>-27.78</v>
       </c>
       <c r="CK13" t="n">
-        <v>12.38</v>
+        <v>0.8599999999999901</v>
       </c>
       <c r="CL13" t="n">
         <v>20.52</v>
@@ -6869,7 +6869,7 @@
         <v>-1.56</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.49</v>
+        <v>0.1299999999999917</v>
       </c>
       <c r="CO13" t="n">
         <v>2.99</v>
@@ -6887,7 +6887,7 @@
         <v>-22.84</v>
       </c>
       <c r="CT13" t="n">
-        <v>5.550000000000001</v>
+        <v>1.27999999999995</v>
       </c>
       <c r="CU13" t="n">
         <v>10.21</v>
@@ -6896,7 +6896,7 @@
         <v>16.74</v>
       </c>
       <c r="CW13" t="n">
-        <v>12.89</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="CX13" t="n">
         <v>20.9</v>
@@ -6905,7 +6905,7 @@
         <v>10.72</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1.29</v>
+        <v>1.049999999999996</v>
       </c>
       <c r="DA13" t="n">
         <v>1.99</v>
@@ -6914,7 +6914,7 @@
         <v>12.55</v>
       </c>
       <c r="DC13" t="n">
-        <v>4.239999999999998</v>
+        <v>0.1599999999999784</v>
       </c>
       <c r="DD13" t="n">
         <v>10.88</v>
@@ -6923,7 +6923,7 @@
         <v>-7.9</v>
       </c>
       <c r="DF13" t="n">
-        <v>5.08</v>
+        <v>4.600000000000039</v>
       </c>
       <c r="DG13" t="n">
         <v>10.53</v>
@@ -6932,7 +6932,7 @@
         <v>-2.43</v>
       </c>
       <c r="DI13" t="n">
-        <v>7.829999999999998</v>
+        <v>0.5099999999999394</v>
       </c>
       <c r="DJ13" t="n">
         <v>20.96</v>
@@ -6941,7 +6941,7 @@
         <v>10.33</v>
       </c>
       <c r="DL13" t="n">
-        <v>22.45</v>
+        <v>5.289999999999941</v>
       </c>
       <c r="DM13" t="n">
         <v>46.53</v>
@@ -6950,7 +6950,7 @@
         <v>10.94</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.4600000000000028</v>
       </c>
       <c r="DP13" t="n">
         <v>1.13</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.469999999999999</v>
+        <v>0.06999999999998252</v>
       </c>
       <c r="C14" t="n">
         <v>18.33</v>
@@ -7095,7 +7095,7 @@
         <v>14.4</v>
       </c>
       <c r="E14" t="n">
-        <v>18.14</v>
+        <v>4.550000000000011</v>
       </c>
       <c r="F14" t="n">
         <v>60.56</v>
@@ -7104,7 +7104,7 @@
         <v>10.9</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2499999999999989</v>
+        <v>0.1699999999999909</v>
       </c>
       <c r="I14" t="n">
         <v>5.08</v>
@@ -7113,7 +7113,7 @@
         <v>2.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.569999999999999</v>
+        <v>1.769999999999999</v>
       </c>
       <c r="L14" t="n">
         <v>7.22</v>
@@ -7122,7 +7122,7 @@
         <v>9.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02</v>
+        <v>0.009999999999999839</v>
       </c>
       <c r="O14" t="n">
         <v>0.02</v>
@@ -7131,7 +7131,7 @@
         <v>-67.59999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.83</v>
+        <v>3.810000000000084</v>
       </c>
       <c r="R14" t="n">
         <v>56.22</v>
@@ -7167,7 +7167,7 @@
         <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.890000000000001</v>
+        <v>1.669999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>12.92</v>
@@ -7176,7 +7176,7 @@
         <v>23.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1600000000000004</v>
+        <v>0.06000000000000127</v>
       </c>
       <c r="AG14" t="n">
         <v>2.08</v>
@@ -7185,7 +7185,7 @@
         <v>3.3</v>
       </c>
       <c r="AI14" t="n">
-        <v>316.4100000000001</v>
+        <v>53.77000000000121</v>
       </c>
       <c r="AJ14" t="n">
         <v>937.29</v>
@@ -7203,7 +7203,7 @@
         <v>-4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.91</v>
+        <v>6.890000000000018</v>
       </c>
       <c r="AP14" t="n">
         <v>29.81</v>
@@ -7212,7 +7212,7 @@
         <v>13.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.06000000000004135</v>
       </c>
       <c r="AS14" t="n">
         <v>16.87</v>
@@ -7221,7 +7221,7 @@
         <v>-13.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="AV14" t="n">
         <v>2.27</v>
@@ -7230,7 +7230,7 @@
         <v>-15.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1800000000000033</v>
+        <v>0.0700000000000056</v>
       </c>
       <c r="AY14" t="n">
         <v>15.28</v>
@@ -7266,7 +7266,7 @@
         <v>-2.7</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.49</v>
+        <v>0.2799999999999701</v>
       </c>
       <c r="BK14" t="n">
         <v>54.99</v>
@@ -7275,7 +7275,7 @@
         <v>31.7</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.06000000000000094</v>
       </c>
       <c r="BN14" t="n">
         <v>2.47</v>
@@ -7284,7 +7284,7 @@
         <v>29.5</v>
       </c>
       <c r="BP14" t="n">
-        <v>4.460000000000003</v>
+        <v>1.339999999999971</v>
       </c>
       <c r="BQ14" t="n">
         <v>35.41</v>
@@ -7293,7 +7293,7 @@
         <v>38.9</v>
       </c>
       <c r="BS14" t="n">
-        <v>42.95999999999998</v>
+        <v>1.619999999999919</v>
       </c>
       <c r="BT14" t="n">
         <v>135.74</v>
@@ -7320,7 +7320,7 @@
         <v>-0.5</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.97</v>
+        <v>0.5100000000000029</v>
       </c>
       <c r="CC14" t="n">
         <v>5.59</v>
@@ -7329,7 +7329,7 @@
         <v>0.7</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.879999999999999</v>
+        <v>0.5900000000000141</v>
       </c>
       <c r="CF14" t="n">
         <v>40.66</v>
@@ -7338,7 +7338,7 @@
         <v>6.8</v>
       </c>
       <c r="CH14" t="n">
-        <v>20.01000000000001</v>
+        <v>10.06999999999999</v>
       </c>
       <c r="CI14" t="n">
         <v>60.47</v>
@@ -7356,7 +7356,7 @@
         <v>5.7</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.49</v>
+        <v>0.3400000000000021</v>
       </c>
       <c r="CO14" t="n">
         <v>4.05</v>
@@ -7365,7 +7365,7 @@
         <v>-0.6</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.460000000000001</v>
+        <v>0.8300000000000041</v>
       </c>
       <c r="CR14" t="n">
         <v>16.76</v>
@@ -7374,7 +7374,7 @@
         <v>12.7</v>
       </c>
       <c r="CT14" t="n">
-        <v>4.759999999999998</v>
+        <v>1.420000000000038</v>
       </c>
       <c r="CU14" t="n">
         <v>16.19</v>
@@ -7383,7 +7383,7 @@
         <v>13.2</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.149999999999999</v>
+        <v>0.9699999999999991</v>
       </c>
       <c r="CX14" t="n">
         <v>34.54</v>
@@ -7401,7 +7401,7 @@
         <v>30.1</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.03000000000001929</v>
       </c>
       <c r="DD14" t="n">
         <v>16.04</v>
@@ -7428,7 +7428,7 @@
         <v>10.2</v>
       </c>
       <c r="DL14" t="n">
-        <v>21.79000000000001</v>
+        <v>5.060000000000031</v>
       </c>
       <c r="DM14" t="n">
         <v>72.70999999999999</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.640000000000001</v>
+        <v>2.570000000000018</v>
       </c>
       <c r="C15" t="n">
         <v>25.01</v>
@@ -7591,7 +7591,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>1.609999999999999</v>
+        <v>0.6500000000000072</v>
       </c>
       <c r="I15" t="n">
         <v>6.77</v>
@@ -7609,7 +7609,7 @@
         <v>-8.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.009999999999999995</v>
+        <v>3.469446951953614e-17</v>
       </c>
       <c r="O15" t="n">
         <v>0.03</v>
@@ -7636,7 +7636,7 @@
         <v>-4.6</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5500000000000007</v>
+        <v>0.0699999999999967</v>
       </c>
       <c r="X15" t="n">
         <v>43.93</v>
@@ -7645,7 +7645,7 @@
         <v>11.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2500000000000031</v>
+        <v>0.09000000000000646</v>
       </c>
       <c r="AA15" t="n">
         <v>11.17</v>
@@ -7681,7 +7681,7 @@
         <v>5</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.22</v>
+        <v>0.02000000000000024</v>
       </c>
       <c r="AM15" t="n">
         <v>4.53</v>
@@ -7717,7 +7717,7 @@
         <v>-7.1</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.209999999999997</v>
+        <v>3.599999999999982</v>
       </c>
       <c r="AY15" t="n">
         <v>19.3</v>
@@ -7744,7 +7744,7 @@
         <v>-11.7</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.58</v>
+        <v>2.420000000000004</v>
       </c>
       <c r="BH15" t="n">
         <v>12.41</v>
@@ -7753,7 +7753,7 @@
         <v>24.8</v>
       </c>
       <c r="BJ15" t="n">
-        <v>12.13999999999999</v>
+        <v>5.420000000000008</v>
       </c>
       <c r="BK15" t="n">
         <v>74.31</v>
@@ -7762,7 +7762,7 @@
         <v>26.3</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.2699999999999982</v>
       </c>
       <c r="BN15" t="n">
         <v>3.35</v>
@@ -7771,7 +7771,7 @@
         <v>30.5</v>
       </c>
       <c r="BP15" t="n">
-        <v>8.869999999999997</v>
+        <v>1.510000000000008</v>
       </c>
       <c r="BQ15" t="n">
         <v>48.87</v>
@@ -7798,7 +7798,7 @@
         <v>-12.8</v>
       </c>
       <c r="BY15" t="n">
-        <v>1.029999999999999</v>
+        <v>0.8700000000000023</v>
       </c>
       <c r="BZ15" t="n">
         <v>44.73</v>
@@ -7807,7 +7807,7 @@
         <v>2.9</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.01</v>
+        <v>0.4999999999999971</v>
       </c>
       <c r="CC15" t="n">
         <v>7.73</v>
@@ -7816,7 +7816,7 @@
         <v>2.8</v>
       </c>
       <c r="CE15" t="n">
-        <v>8.589999999999996</v>
+        <v>0.8299999999999983</v>
       </c>
       <c r="CF15" t="n">
         <v>53.06</v>
@@ -7834,7 +7834,7 @@
         <v>-29.4</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.1599999999999913</v>
+        <v>0.06999999999998255</v>
       </c>
       <c r="CL15" t="n">
         <v>47.53</v>
@@ -7843,7 +7843,7 @@
         <v>4</v>
       </c>
       <c r="CN15" t="n">
-        <v>1.14</v>
+        <v>0.4599999999999957</v>
       </c>
       <c r="CO15" t="n">
         <v>5.81</v>
@@ -7852,7 +7852,7 @@
         <v>4.4</v>
       </c>
       <c r="CQ15" t="n">
-        <v>5.140000000000001</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="CR15" t="n">
         <v>23.21</v>
@@ -7879,7 +7879,7 @@
         <v>9.5</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.34</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="DA15" t="n">
         <v>5.26</v>
@@ -7888,7 +7888,7 @@
         <v>17.9</v>
       </c>
       <c r="DC15" t="n">
-        <v>4.629999999999999</v>
+        <v>2.989999999999984</v>
       </c>
       <c r="DD15" t="n">
         <v>21.57</v>
@@ -7897,7 +7897,7 @@
         <v>4.1</v>
       </c>
       <c r="DF15" t="n">
-        <v>5.380000000000003</v>
+        <v>3.260000000000012</v>
       </c>
       <c r="DG15" t="n">
         <v>17.76</v>
@@ -7906,7 +7906,7 @@
         <v>-17.3</v>
       </c>
       <c r="DI15" t="n">
-        <v>2.5</v>
+        <v>1.099999999999996</v>
       </c>
       <c r="DJ15" t="n">
         <v>37.9</v>
@@ -7924,7 +7924,7 @@
         <v>14.5</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.05000000000000004</v>
+        <v>1.040834085586084e-16</v>
       </c>
       <c r="DP15" t="n">
         <v>2.69</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.770000000000003</v>
+        <v>0.4900000000000011</v>
       </c>
       <c r="C16" t="n">
         <v>32.7</v>
@@ -8069,7 +8069,7 @@
         <v>10.4</v>
       </c>
       <c r="E16" t="n">
-        <v>17.94999999999999</v>
+        <v>13.46999999999995</v>
       </c>
       <c r="F16" t="n">
         <v>106.93</v>
@@ -8096,7 +8096,7 @@
         <v>-0.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01000000000000001</v>
+        <v>1.561251128379126e-17</v>
       </c>
       <c r="O16" t="n">
         <v>0.04</v>
@@ -8105,7 +8105,7 @@
         <v>-61.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.84</v>
+        <v>10.36</v>
       </c>
       <c r="R16" t="n">
         <v>95.38</v>
@@ -8123,7 +8123,7 @@
         <v>-4.2</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9299999999999891</v>
+        <v>0.06999999999998957</v>
       </c>
       <c r="X16" t="n">
         <v>55.53</v>
@@ -8168,7 +8168,7 @@
         <v>5.2</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.05999999999999962</v>
       </c>
       <c r="AM16" t="n">
         <v>4.79</v>
@@ -8186,7 +8186,7 @@
         <v>16.1</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.1599999999999681</v>
       </c>
       <c r="AS16" t="n">
         <v>30.18</v>
@@ -8195,7 +8195,7 @@
         <v>-10.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.05000000000000018</v>
       </c>
       <c r="AV16" t="n">
         <v>4.31</v>
@@ -8213,7 +8213,7 @@
         <v>2.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.569999999999999</v>
+        <v>1.169999999999999</v>
       </c>
       <c r="BB16" t="n">
         <v>7.59</v>
@@ -8222,7 +8222,7 @@
         <v>7.8</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="BE16" t="n">
         <v>0.55</v>
@@ -8240,7 +8240,7 @@
         <v>-2.7</v>
       </c>
       <c r="BJ16" t="n">
-        <v>9.469999999999999</v>
+        <v>2.31000000000001</v>
       </c>
       <c r="BK16" t="n">
         <v>90.94</v>
@@ -8258,7 +8258,7 @@
         <v>22.1</v>
       </c>
       <c r="BP16" t="n">
-        <v>8.660000000000004</v>
+        <v>4.250000000000009</v>
       </c>
       <c r="BQ16" t="n">
         <v>60.2</v>
@@ -8267,7 +8267,7 @@
         <v>29.9</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.080000000000005</v>
+        <v>0.0299999999999368</v>
       </c>
       <c r="BT16" t="n">
         <v>229.55</v>
@@ -8276,7 +8276,7 @@
         <v>7</v>
       </c>
       <c r="BV16" t="n">
-        <v>18.09999999999999</v>
+        <v>15.41999999999999</v>
       </c>
       <c r="BW16" t="n">
         <v>60.38</v>
@@ -8285,7 +8285,7 @@
         <v>-19.4</v>
       </c>
       <c r="BY16" t="n">
-        <v>3.510000000000002</v>
+        <v>0.5400000000000025</v>
       </c>
       <c r="BZ16" t="n">
         <v>59.92</v>
@@ -8294,7 +8294,7 @@
         <v>6.2</v>
       </c>
       <c r="CB16" t="n">
-        <v>2.550000000000001</v>
+        <v>0.5300000000000009</v>
       </c>
       <c r="CC16" t="n">
         <v>10.19</v>
@@ -8303,7 +8303,7 @@
         <v>-2.9</v>
       </c>
       <c r="CE16" t="n">
-        <v>6.190000000000014</v>
+        <v>0.6500000000000177</v>
       </c>
       <c r="CF16" t="n">
         <v>65.27</v>
@@ -8312,7 +8312,7 @@
         <v>3.4</v>
       </c>
       <c r="CH16" t="n">
-        <v>22.46000000000001</v>
+        <v>4.32000000000003</v>
       </c>
       <c r="CI16" t="n">
         <v>103.12</v>
@@ -8321,7 +8321,7 @@
         <v>-26.8</v>
       </c>
       <c r="CK16" t="n">
-        <v>12.53</v>
+        <v>12.16000000000007</v>
       </c>
       <c r="CL16" t="n">
         <v>60.76</v>
@@ -8357,7 +8357,7 @@
         <v>13.4</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.1399999999999986</v>
       </c>
       <c r="CX16" t="n">
         <v>65.31</v>
@@ -8402,7 +8402,7 @@
         <v>6.4</v>
       </c>
       <c r="DL16" t="n">
-        <v>22.31</v>
+        <v>16.07000000000008</v>
       </c>
       <c r="DM16" t="n">
         <v>128.03</v>
@@ -8411,7 +8411,7 @@
         <v>16.9</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.79</v>
+        <v>0.7399999999999997</v>
       </c>
       <c r="DP16" t="n">
         <v>3.68</v>
@@ -8556,7 +8556,7 @@
         <v>15.4</v>
       </c>
       <c r="E17" t="n">
-        <v>15.72000000000001</v>
+        <v>0.01000000000003887</v>
       </c>
       <c r="F17" t="n">
         <v>131.26</v>
@@ -8565,7 +8565,7 @@
         <v>19.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.970000000000001</v>
+        <v>0.1699999999999968</v>
       </c>
       <c r="I17" t="n">
         <v>10.99</v>
@@ -8583,7 +8583,7 @@
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="O17" t="n">
         <v>0.05</v>
@@ -8601,7 +8601,7 @@
         <v>8.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.130000000000001</v>
+        <v>1.370000000000001</v>
       </c>
       <c r="U17" t="n">
         <v>14.28</v>
@@ -8610,7 +8610,7 @@
         <v>-1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.660000000000004</v>
+        <v>6.900000000000048</v>
       </c>
       <c r="X17" t="n">
         <v>67.13</v>
@@ -8619,7 +8619,7 @@
         <v>7.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5599999999999992</v>
+        <v>0.4800000000000115</v>
       </c>
       <c r="AA17" t="n">
         <v>17.55</v>
@@ -8628,7 +8628,7 @@
         <v>12.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.32</v>
+        <v>2.960000000000016</v>
       </c>
       <c r="AD17" t="n">
         <v>28.66</v>
@@ -8637,7 +8637,7 @@
         <v>15.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.7400000000000002</v>
+        <v>0.6600000000000019</v>
       </c>
       <c r="AG17" t="n">
         <v>4.34</v>
@@ -8646,7 +8646,7 @@
         <v>-5.7</v>
       </c>
       <c r="AI17" t="n">
-        <v>302.0400000000002</v>
+        <v>279.279999999999</v>
       </c>
       <c r="AJ17" t="n">
         <v>1979.62</v>
@@ -8655,7 +8655,7 @@
         <v>6.3</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.14</v>
+        <v>0.76</v>
       </c>
       <c r="AM17" t="n">
         <v>5.99</v>
@@ -8664,7 +8664,7 @@
         <v>-7</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.880000000000003</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="AP17" t="n">
         <v>68.87</v>
@@ -8673,7 +8673,7 @@
         <v>17.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.09000000000001052</v>
       </c>
       <c r="AS17" t="n">
         <v>37.59</v>
@@ -8682,7 +8682,7 @@
         <v>-8.9</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9799999999999995</v>
+        <v>0.6699999999999989</v>
       </c>
       <c r="AV17" t="n">
         <v>5.73</v>
@@ -8691,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.300000000000001</v>
+        <v>1.059999999999992</v>
       </c>
       <c r="AY17" t="n">
         <v>28.39</v>
@@ -8709,7 +8709,7 @@
         <v>11</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.2399999999999999</v>
+        <v>0.03999999999999984</v>
       </c>
       <c r="BE17" t="n">
         <v>0.74</v>
@@ -8727,7 +8727,7 @@
         <v>0.9</v>
       </c>
       <c r="BJ17" t="n">
-        <v>5.440000000000012</v>
+        <v>3.130000000000002</v>
       </c>
       <c r="BK17" t="n">
         <v>107.68</v>
@@ -8736,7 +8736,7 @@
         <v>33.8</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.4399999999999995</v>
+        <v>0.1299999999999994</v>
       </c>
       <c r="BN17" t="n">
         <v>4.15</v>
@@ -8754,7 +8754,7 @@
         <v>31.2</v>
       </c>
       <c r="BS17" t="n">
-        <v>42.96999999999997</v>
+        <v>40.75000000000009</v>
       </c>
       <c r="BT17" t="n">
         <v>281.16</v>
@@ -8763,7 +8763,7 @@
         <v>8.6</v>
       </c>
       <c r="BV17" t="n">
-        <v>16.97</v>
+        <v>0.210000000000008</v>
       </c>
       <c r="BW17" t="n">
         <v>77.37</v>
@@ -8772,7 +8772,7 @@
         <v>-16.8</v>
       </c>
       <c r="BY17" t="n">
-        <v>12.33</v>
+        <v>4.309999999999991</v>
       </c>
       <c r="BZ17" t="n">
         <v>74.3</v>
@@ -8790,7 +8790,7 @@
         <v>-1</v>
       </c>
       <c r="CE17" t="n">
-        <v>2.469999999999999</v>
+        <v>0.3399999999999652</v>
       </c>
       <c r="CF17" t="n">
         <v>75.81</v>
@@ -8808,7 +8808,7 @@
         <v>-23</v>
       </c>
       <c r="CK17" t="n">
-        <v>12.31</v>
+        <v>0.009999999999971365</v>
       </c>
       <c r="CL17" t="n">
         <v>74.34</v>
@@ -8817,7 +8817,7 @@
         <v>4.9</v>
       </c>
       <c r="CN17" t="n">
-        <v>1.49</v>
+        <v>0.06999999999999784</v>
       </c>
       <c r="CO17" t="n">
         <v>8.76</v>
@@ -8826,7 +8826,7 @@
         <v>2.4</v>
       </c>
       <c r="CQ17" t="n">
-        <v>5.179999999999996</v>
+        <v>2.539999999999996</v>
       </c>
       <c r="CR17" t="n">
         <v>37.28</v>
@@ -8835,7 +8835,7 @@
         <v>18.5</v>
       </c>
       <c r="CT17" t="n">
-        <v>5.010000000000002</v>
+        <v>1.570000000000005</v>
       </c>
       <c r="CU17" t="n">
         <v>34.7</v>
@@ -8844,7 +8844,7 @@
         <v>10.4</v>
       </c>
       <c r="CW17" t="n">
-        <v>13.55</v>
+        <v>12.57</v>
       </c>
       <c r="CX17" t="n">
         <v>82.77</v>
@@ -8853,7 +8853,7 @@
         <v>11</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.390000000000001</v>
+        <v>0.910000000000001</v>
       </c>
       <c r="DA17" t="n">
         <v>8.210000000000001</v>
@@ -8862,7 +8862,7 @@
         <v>13</v>
       </c>
       <c r="DC17" t="n">
-        <v>4.899999999999999</v>
+        <v>2.099999999999987</v>
       </c>
       <c r="DD17" t="n">
         <v>32.88</v>
@@ -8871,7 +8871,7 @@
         <v>7.2</v>
       </c>
       <c r="DF17" t="n">
-        <v>4.399999999999999</v>
+        <v>1.600000000000002</v>
       </c>
       <c r="DG17" t="n">
         <v>28.71</v>
@@ -8880,7 +8880,7 @@
         <v>-12.8</v>
       </c>
       <c r="DI17" t="n">
-        <v>10.88</v>
+        <v>8.52</v>
       </c>
       <c r="DJ17" t="n">
         <v>61.85</v>
@@ -8889,7 +8889,7 @@
         <v>8.6</v>
       </c>
       <c r="DL17" t="n">
-        <v>20.99000000000001</v>
+        <v>0.2399999999999878</v>
       </c>
       <c r="DM17" t="n">
         <v>155.36</v>
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.289999999999999</v>
+        <v>5.090000000000011</v>
       </c>
       <c r="C18" t="n">
         <v>47.44</v>
@@ -9043,7 +9043,7 @@
         <v>15.1</v>
       </c>
       <c r="E18" t="n">
-        <v>4.48999999999997</v>
+        <v>4.479999999999931</v>
       </c>
       <c r="F18" t="n">
         <v>156.51</v>
@@ -9052,7 +9052,7 @@
         <v>24.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.43</v>
+        <v>0.360000000000001</v>
       </c>
       <c r="I18" t="n">
         <v>12.7</v>
@@ -9061,7 +9061,7 @@
         <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>1.289999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="L18" t="n">
         <v>14.73</v>
@@ -9079,7 +9079,7 @@
         <v>-56.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.99000000000001</v>
+        <v>13.39000000000005</v>
       </c>
       <c r="R18" t="n">
         <v>140.41</v>
@@ -9106,7 +9106,7 @@
         <v>10.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.900000000000002</v>
+        <v>0.7799999999999876</v>
       </c>
       <c r="AA18" t="n">
         <v>20.45</v>
@@ -9160,7 +9160,7 @@
         <v>19.1</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.839999999999996</v>
+        <v>4.159999999999961</v>
       </c>
       <c r="AS18" t="n">
         <v>45.02</v>
@@ -9178,7 +9178,7 @@
         <v>3.9</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.149999999999999</v>
+        <v>0.6600000000000006</v>
       </c>
       <c r="AY18" t="n">
         <v>32.56</v>
@@ -9196,7 +9196,7 @@
         <v>8</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.06000000000000005</v>
+        <v>1.942890293094024e-16</v>
       </c>
       <c r="BE18" t="n">
         <v>0.88</v>
@@ -9223,7 +9223,7 @@
         <v>29.7</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.2300000000000004</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="BN18" t="n">
         <v>4.51</v>
@@ -9232,7 +9232,7 @@
         <v>10</v>
       </c>
       <c r="BP18" t="n">
-        <v>2.609999999999996</v>
+        <v>0.6099999999999961</v>
       </c>
       <c r="BQ18" t="n">
         <v>82.65000000000001</v>
@@ -9250,7 +9250,7 @@
         <v>10.7</v>
       </c>
       <c r="BV18" t="n">
-        <v>16.40000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="BW18" t="n">
         <v>91.52</v>
@@ -9259,7 +9259,7 @@
         <v>-16.8</v>
       </c>
       <c r="BY18" t="n">
-        <v>12.15000000000001</v>
+        <v>3.330000000000011</v>
       </c>
       <c r="BZ18" t="n">
         <v>85.87</v>
@@ -9268,7 +9268,7 @@
         <v>0.8</v>
       </c>
       <c r="CB18" t="n">
-        <v>2.6</v>
+        <v>1.680000000000008</v>
       </c>
       <c r="CC18" t="n">
         <v>15.42</v>
@@ -9277,7 +9277,7 @@
         <v>-2.6</v>
       </c>
       <c r="CE18" t="n">
-        <v>10.58</v>
+        <v>2.18000000000002</v>
       </c>
       <c r="CF18" t="n">
         <v>86.19</v>
@@ -9286,7 +9286,7 @@
         <v>7.2</v>
       </c>
       <c r="CH18" t="n">
-        <v>21.88</v>
+        <v>11.28000000000008</v>
       </c>
       <c r="CI18" t="n">
         <v>142.99</v>
@@ -9295,7 +9295,7 @@
         <v>-24.1</v>
       </c>
       <c r="CK18" t="n">
-        <v>1.009999999999989</v>
+        <v>1.000000000000018</v>
       </c>
       <c r="CL18" t="n">
         <v>87.06999999999999</v>
@@ -9304,7 +9304,7 @@
         <v>4.7</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000415</v>
       </c>
       <c r="CO18" t="n">
         <v>10.9</v>
@@ -9349,7 +9349,7 @@
         <v>12</v>
       </c>
       <c r="DC18" t="n">
-        <v>4.710000000000001</v>
+        <v>0.5100000000000051</v>
       </c>
       <c r="DD18" t="n">
         <v>37.97</v>
@@ -9367,7 +9367,7 @@
         <v>-9.1</v>
       </c>
       <c r="DI18" t="n">
-        <v>9.179999999999993</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="DJ18" t="n">
         <v>71.51000000000001</v>
@@ -9376,7 +9376,7 @@
         <v>5.4</v>
       </c>
       <c r="DL18" t="n">
-        <v>3.739999999999981</v>
+        <v>3.260000000000005</v>
       </c>
       <c r="DM18" t="n">
         <v>180.59</v>
@@ -9539,7 +9539,7 @@
         <v>23.9</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9200000000000002</v>
+        <v>0.5599999999999992</v>
       </c>
       <c r="I19" t="n">
         <v>14.7</v>
@@ -9548,7 +9548,7 @@
         <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.080000000000002</v>
+        <v>0.1400000000000021</v>
       </c>
       <c r="L19" t="n">
         <v>16.76</v>
@@ -9575,7 +9575,7 @@
         <v>10.7</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2399999999999989</v>
+        <v>0.04000000000000051</v>
       </c>
       <c r="U19" t="n">
         <v>19.53</v>
@@ -9584,7 +9584,7 @@
         <v>3.5</v>
       </c>
       <c r="W19" t="n">
-        <v>10.3</v>
+        <v>2.700000000000014</v>
       </c>
       <c r="X19" t="n">
         <v>89.09</v>
@@ -9593,7 +9593,7 @@
         <v>9.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.620000000000001</v>
+        <v>0.279999999999998</v>
       </c>
       <c r="AA19" t="n">
         <v>23.35</v>
@@ -9611,7 +9611,7 @@
         <v>13.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.0900000000000008</v>
       </c>
       <c r="AG19" t="n">
         <v>6.12</v>
@@ -9620,7 +9620,7 @@
         <v>-4</v>
       </c>
       <c r="AI19" t="n">
-        <v>21.70000000000033</v>
+        <v>6.500000000000739</v>
       </c>
       <c r="AJ19" t="n">
         <v>2668.07</v>
@@ -9629,7 +9629,7 @@
         <v>7.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.02</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="AM19" t="n">
         <v>9.16</v>
@@ -9638,7 +9638,7 @@
         <v>0.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.380000000000013</v>
+        <v>0.5400000000000245</v>
       </c>
       <c r="AP19" t="n">
         <v>91.91</v>
@@ -9656,7 +9656,7 @@
         <v>-4.3</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.8099999999999996</v>
+        <v>0.2499999999999968</v>
       </c>
       <c r="AV19" t="n">
         <v>7.83</v>
@@ -9674,7 +9674,7 @@
         <v>2.3</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.649999999999999</v>
+        <v>1.530000000000003</v>
       </c>
       <c r="BB19" t="n">
         <v>12.98</v>
@@ -9683,7 +9683,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.14</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="BE19" t="n">
         <v>0.96</v>
@@ -9692,7 +9692,7 @@
         <v>-19.8</v>
       </c>
       <c r="BG19" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="BH19" t="n">
         <v>20.83</v>
@@ -9701,7 +9701,7 @@
         <v>2.3</v>
       </c>
       <c r="BJ19" t="n">
-        <v>1.569999999999999</v>
+        <v>0.2700000000000196</v>
       </c>
       <c r="BK19" t="n">
         <v>142.06</v>
@@ -9710,7 +9710,7 @@
         <v>28.1</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.6000000000000005</v>
+        <v>0.0399999999999987</v>
       </c>
       <c r="BN19" t="n">
         <v>5.49</v>
@@ -9719,7 +9719,7 @@
         <v>14.9</v>
       </c>
       <c r="BP19" t="n">
-        <v>11.73</v>
+        <v>4.290000000000017</v>
       </c>
       <c r="BQ19" t="n">
         <v>94.63</v>
@@ -9728,7 +9728,7 @@
         <v>24.7</v>
       </c>
       <c r="BS19" t="n">
-        <v>13.13999999999993</v>
+        <v>10.17999999999965</v>
       </c>
       <c r="BT19" t="n">
         <v>385.43</v>
@@ -9746,7 +9746,7 @@
         <v>-17.8</v>
       </c>
       <c r="BY19" t="n">
-        <v>10.34999999999999</v>
+        <v>3.689999999999969</v>
       </c>
       <c r="BZ19" t="n">
         <v>98.20999999999999</v>
@@ -9764,7 +9764,7 @@
         <v>-1.4</v>
       </c>
       <c r="CE19" t="n">
-        <v>10.92</v>
+        <v>0.3399999999999999</v>
       </c>
       <c r="CF19" t="n">
         <v>100.58</v>
@@ -9791,7 +9791,7 @@
         <v>3.9</v>
       </c>
       <c r="CN19" t="n">
-        <v>1.639999999999999</v>
+        <v>0.949999999999997</v>
       </c>
       <c r="CO19" t="n">
         <v>12.21</v>
@@ -9800,7 +9800,7 @@
         <v>4.1</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.9299999999999926</v>
+        <v>0.3499999999999837</v>
       </c>
       <c r="CR19" t="n">
         <v>51.09</v>
@@ -9809,7 +9809,7 @@
         <v>20.4</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.5100000000000051</v>
+        <v>0.1000000000000121</v>
       </c>
       <c r="CU19" t="n">
         <v>47.69</v>
@@ -9827,7 +9827,7 @@
         <v>12.3</v>
       </c>
       <c r="CZ19" t="n">
-        <v>1.109999999999999</v>
+        <v>0.9500000000000031</v>
       </c>
       <c r="DA19" t="n">
         <v>11.21</v>
@@ -9836,7 +9836,7 @@
         <v>11.3</v>
       </c>
       <c r="DC19" t="n">
-        <v>3.210000000000001</v>
+        <v>2.189999999999991</v>
       </c>
       <c r="DD19" t="n">
         <v>44.79</v>
@@ -9863,7 +9863,7 @@
         <v>5.2</v>
       </c>
       <c r="DL19" t="n">
-        <v>17.63</v>
+        <v>2.910000000000066</v>
       </c>
       <c r="DM19" t="n">
         <v>209.71</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.199999999999996</v>
+        <v>2.519999999999989</v>
       </c>
       <c r="C20" t="n">
         <v>60.91</v>
@@ -10017,7 +10017,7 @@
         <v>15.6</v>
       </c>
       <c r="E20" t="n">
-        <v>16.84</v>
+        <v>8.199999999999919</v>
       </c>
       <c r="F20" t="n">
         <v>208.13</v>
@@ -10035,7 +10035,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>2.16</v>
+        <v>0.3299999999999939</v>
       </c>
       <c r="L20" t="n">
         <v>19.33</v>
@@ -10053,7 +10053,7 @@
         <v>-44.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.08999999999997</v>
+        <v>2.880000000000004</v>
       </c>
       <c r="R20" t="n">
         <v>183.62</v>
@@ -10062,7 +10062,7 @@
         <v>11.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2000000000000033</v>
+        <v>0.02000000000000307</v>
       </c>
       <c r="U20" t="n">
         <v>22.33</v>
@@ -10071,7 +10071,7 @@
         <v>4.6</v>
       </c>
       <c r="W20" t="n">
-        <v>8.700000000000003</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="X20" t="n">
         <v>102.31</v>
@@ -10080,7 +10080,7 @@
         <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.659999999999997</v>
+        <v>0.1000000000000011</v>
       </c>
       <c r="AA20" t="n">
         <v>25.74</v>
@@ -10089,7 +10089,7 @@
         <v>5</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.789999999999999</v>
+        <v>2.310000000000011</v>
       </c>
       <c r="AD20" t="n">
         <v>44.35</v>
@@ -10098,7 +10098,7 @@
         <v>12.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.8099999999999996</v>
+        <v>0.0299999999999984</v>
       </c>
       <c r="AG20" t="n">
         <v>7.1</v>
@@ -10107,7 +10107,7 @@
         <v>-3.7</v>
       </c>
       <c r="AI20" t="n">
-        <v>310.5099999999998</v>
+        <v>269.3099999999974</v>
       </c>
       <c r="AJ20" t="n">
         <v>3069.9</v>
@@ -10125,7 +10125,7 @@
         <v>2.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.079999999999998</v>
+        <v>4.159999999999917</v>
       </c>
       <c r="AP20" t="n">
         <v>104.93</v>
@@ -10134,7 +10134,7 @@
         <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.059999999999995</v>
+        <v>0.1899999999999904</v>
       </c>
       <c r="AS20" t="n">
         <v>60.4</v>
@@ -10152,7 +10152,7 @@
         <v>2.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.5099999999999909</v>
+        <v>0.1499999999999844</v>
       </c>
       <c r="AY20" t="n">
         <v>42.25</v>
@@ -10170,7 +10170,7 @@
         <v>7.3</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.02000000000000018</v>
+        <v>2.706168622523819e-16</v>
       </c>
       <c r="BE20" t="n">
         <v>1.3</v>
@@ -10188,7 +10188,7 @@
         <v>7.5</v>
       </c>
       <c r="BJ20" t="n">
-        <v>13.38</v>
+        <v>10.34999999999995</v>
       </c>
       <c r="BK20" t="n">
         <v>163.01</v>
@@ -10197,7 +10197,7 @@
         <v>27.3</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.3499999999999996</v>
+        <v>0.1700000000000012</v>
       </c>
       <c r="BN20" t="n">
         <v>6.09</v>
@@ -10215,7 +10215,7 @@
         <v>24.4</v>
       </c>
       <c r="BS20" t="n">
-        <v>46.06999999999999</v>
+        <v>8.87000000000041</v>
       </c>
       <c r="BT20" t="n">
         <v>452.44</v>
@@ -10251,7 +10251,7 @@
         <v>-4.3</v>
       </c>
       <c r="CE20" t="n">
-        <v>3.80999999999999</v>
+        <v>2.78999999999999</v>
       </c>
       <c r="CF20" t="n">
         <v>117.09</v>
@@ -10260,7 +10260,7 @@
         <v>12.2</v>
       </c>
       <c r="CH20" t="n">
-        <v>22.66999999999999</v>
+        <v>13.18999999999999</v>
       </c>
       <c r="CI20" t="n">
         <v>184.26</v>
@@ -10269,7 +10269,7 @@
         <v>-21.4</v>
       </c>
       <c r="CK20" t="n">
-        <v>12.7</v>
+        <v>10.41999999999996</v>
       </c>
       <c r="CL20" t="n">
         <v>113.79</v>
@@ -10278,7 +10278,7 @@
         <v>3.1</v>
       </c>
       <c r="CN20" t="n">
-        <v>1.48</v>
+        <v>0.03000000000000091</v>
       </c>
       <c r="CO20" t="n">
         <v>14</v>
@@ -10287,7 +10287,7 @@
         <v>4.7</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.490000000000002</v>
+        <v>0.1400000000000183</v>
       </c>
       <c r="CR20" t="n">
         <v>58.21</v>
@@ -10296,7 +10296,7 @@
         <v>18.5</v>
       </c>
       <c r="CT20" t="n">
-        <v>5.020000000000003</v>
+        <v>4.209999999999962</v>
       </c>
       <c r="CU20" t="n">
         <v>54.21</v>
@@ -10305,7 +10305,7 @@
         <v>13.4</v>
       </c>
       <c r="CW20" t="n">
-        <v>1.000000000000002</v>
+        <v>0.4900000000000022</v>
       </c>
       <c r="CX20" t="n">
         <v>133.53</v>
@@ -10323,7 +10323,7 @@
         <v>12.3</v>
       </c>
       <c r="DC20" t="n">
-        <v>5.379999999999995</v>
+        <v>2.169999999999994</v>
       </c>
       <c r="DD20" t="n">
         <v>51.09</v>
@@ -10332,7 +10332,7 @@
         <v>6</v>
       </c>
       <c r="DF20" t="n">
-        <v>3.719999999999999</v>
+        <v>2.559999999999975</v>
       </c>
       <c r="DG20" t="n">
         <v>47.68</v>
@@ -10341,7 +10341,7 @@
         <v>-2.3</v>
       </c>
       <c r="DI20" t="n">
-        <v>6.309999999999988</v>
+        <v>3.069999999999923</v>
       </c>
       <c r="DJ20" t="n">
         <v>92.66</v>
@@ -10359,7 +10359,7 @@
         <v>22</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.75</v>
+        <v>0.1199999999999973</v>
       </c>
       <c r="DP20" t="n">
         <v>6.78</v>
@@ -10513,7 +10513,7 @@
         <v>26.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.73</v>
+        <v>1.610000000000004</v>
       </c>
       <c r="I21" t="n">
         <v>20.27</v>
@@ -10522,7 +10522,7 @@
         <v>7.77</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4800000000000009</v>
+        <v>0.01000000000000495</v>
       </c>
       <c r="L21" t="n">
         <v>21.68</v>
@@ -10540,7 +10540,7 @@
         <v>-49.13</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.240000000000038</v>
+        <v>0.3600000000000341</v>
       </c>
       <c r="R21" t="n">
         <v>210.24</v>
@@ -10549,7 +10549,7 @@
         <v>14.62</v>
       </c>
       <c r="T21" t="n">
-        <v>0.259999999999998</v>
+        <v>0.03999999999999165</v>
       </c>
       <c r="U21" t="n">
         <v>25.6</v>
@@ -10558,7 +10558,7 @@
         <v>6.61</v>
       </c>
       <c r="W21" t="n">
-        <v>3.289999999999987</v>
+        <v>2.689999999999989</v>
       </c>
       <c r="X21" t="n">
         <v>113.28</v>
@@ -10585,7 +10585,7 @@
         <v>12.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2300000000000013</v>
+        <v>0.1100000000000021</v>
       </c>
       <c r="AG21" t="n">
         <v>7.99</v>
@@ -10603,7 +10603,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.5200000000000009</v>
+        <v>0.2400000000000007</v>
       </c>
       <c r="AM21" t="n">
         <v>11.29</v>
@@ -10621,7 +10621,7 @@
         <v>19.47</v>
       </c>
       <c r="AR21" t="n">
-        <v>6.200000000000003</v>
+        <v>4.570000000000036</v>
       </c>
       <c r="AS21" t="n">
         <v>66.91</v>
@@ -10639,7 +10639,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.6100000000000065</v>
+        <v>0.1000000000000156</v>
       </c>
       <c r="AY21" t="n">
         <v>47.23</v>
@@ -10648,7 +10648,7 @@
         <v>3.3</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.3400000000000021</v>
+        <v>0.2599999999999985</v>
       </c>
       <c r="BB21" t="n">
         <v>16.3</v>
@@ -10657,7 +10657,7 @@
         <v>7.25</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.21</v>
+        <v>0.1499999999999991</v>
       </c>
       <c r="BE21" t="n">
         <v>1.39</v>
@@ -10666,7 +10666,7 @@
         <v>-13.66</v>
       </c>
       <c r="BG21" t="n">
-        <v>2.059999999999999</v>
+        <v>0.01999999999999869</v>
       </c>
       <c r="BH21" t="n">
         <v>27.05</v>
@@ -10684,7 +10684,7 @@
         <v>27.09</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.4300000000000007</v>
+        <v>0.08000000000000113</v>
       </c>
       <c r="BN21" t="n">
         <v>6.78</v>
@@ -10693,7 +10693,7 @@
         <v>18.42</v>
       </c>
       <c r="BP21" t="n">
-        <v>11.82000000000001</v>
+        <v>8.500000000000052</v>
       </c>
       <c r="BQ21" t="n">
         <v>120.77</v>
@@ -10702,7 +10702,7 @@
         <v>20.52</v>
       </c>
       <c r="BS21" t="n">
-        <v>10.68000000000001</v>
+        <v>1.809999999999601</v>
       </c>
       <c r="BT21" t="n">
         <v>500.4</v>
@@ -10729,7 +10729,7 @@
         <v>8.4</v>
       </c>
       <c r="CB21" t="n">
-        <v>2.699999999999999</v>
+        <v>2.099999999999991</v>
       </c>
       <c r="CC21" t="n">
         <v>23.7</v>
@@ -10738,7 +10738,7 @@
         <v>-3.89</v>
       </c>
       <c r="CE21" t="n">
-        <v>14.33000000000001</v>
+        <v>0.1100000000000487</v>
       </c>
       <c r="CF21" t="n">
         <v>133.36</v>
@@ -10765,7 +10765,7 @@
         <v>3.19</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.04999999999999893</v>
+        <v>0.01999999999999802</v>
       </c>
       <c r="CO21" t="n">
         <v>15.55</v>
@@ -10774,7 +10774,7 @@
         <v>4.77</v>
       </c>
       <c r="CQ21" t="n">
-        <v>6.600000000000001</v>
+        <v>5.339999999999961</v>
       </c>
       <c r="CR21" t="n">
         <v>65.36</v>
@@ -10792,7 +10792,7 @@
         <v>16.31</v>
       </c>
       <c r="CW21" t="n">
-        <v>16.34</v>
+        <v>13.87</v>
       </c>
       <c r="CX21" t="n">
         <v>150.54</v>
@@ -10801,7 +10801,7 @@
         <v>11.72</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.04999999999999688</v>
       </c>
       <c r="DA21" t="n">
         <v>14.1</v>
@@ -10828,7 +10828,7 @@
         <v>2.09</v>
       </c>
       <c r="DI21" t="n">
-        <v>4.650000000000006</v>
+        <v>0.7700000000000666</v>
       </c>
       <c r="DJ21" t="n">
         <v>101.23</v>
@@ -10837,7 +10837,7 @@
         <v>8.48</v>
       </c>
       <c r="DL21" t="n">
-        <v>17.70000000000002</v>
+        <v>3.340000000000019</v>
       </c>
       <c r="DM21" t="n">
         <v>269.76</v>
@@ -10846,7 +10846,7 @@
         <v>24.65</v>
       </c>
       <c r="DO21" t="n">
-        <v>0.71</v>
+        <v>0.05000000000000349</v>
       </c>
       <c r="DP21" t="n">
         <v>7.7</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.900000000000015</v>
+        <v>0.02000000000001934</v>
       </c>
       <c r="C22" t="n">
         <v>76.31999999999999</v>
@@ -10991,7 +10991,7 @@
         <v>15.52</v>
       </c>
       <c r="E22" t="n">
-        <v>7.96999999999997</v>
+        <v>1.489999999999952</v>
       </c>
       <c r="F22" t="n">
         <v>259.41</v>
@@ -11009,7 +11009,7 @@
         <v>12.86</v>
       </c>
       <c r="K22" t="n">
-        <v>1.699999999999999</v>
+        <v>0.2599999999999962</v>
       </c>
       <c r="L22" t="n">
         <v>24.59</v>
@@ -11018,7 +11018,7 @@
         <v>3.51</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.009999999999999979</v>
       </c>
       <c r="O22" t="n">
         <v>0.14</v>
@@ -11027,7 +11027,7 @@
         <v>-17.23</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.780000000000001</v>
+        <v>1.299999999999926</v>
       </c>
       <c r="R22" t="n">
         <v>234.37</v>
@@ -11036,7 +11036,7 @@
         <v>14.46</v>
       </c>
       <c r="T22" t="n">
-        <v>2.469999999999999</v>
+        <v>2.030000000000016</v>
       </c>
       <c r="U22" t="n">
         <v>28.63</v>
@@ -11045,7 +11045,7 @@
         <v>6.28</v>
       </c>
       <c r="W22" t="n">
-        <v>3.97000000000002</v>
+        <v>0.680000000000033</v>
       </c>
       <c r="X22" t="n">
         <v>127.37</v>
@@ -11054,7 +11054,7 @@
         <v>13.28</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.4399999999999982</v>
+        <v>0.319999999999983</v>
       </c>
       <c r="AA22" t="n">
         <v>32.89</v>
@@ -11063,7 +11063,7 @@
         <v>5.77</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.190000000000005</v>
+        <v>1.270000000000017</v>
       </c>
       <c r="AD22" t="n">
         <v>53.41</v>
@@ -11072,7 +11072,7 @@
         <v>11.89</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.129999999999999</v>
+        <v>0.329999999999993</v>
       </c>
       <c r="AG22" t="n">
         <v>8.9</v>
@@ -11081,7 +11081,7 @@
         <v>-3.48</v>
       </c>
       <c r="AI22" t="n">
-        <v>104.04</v>
+        <v>52.47999999999892</v>
       </c>
       <c r="AJ22" t="n">
         <v>3830.33</v>
@@ -11090,7 +11090,7 @@
         <v>10.88</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.3499999999999981</v>
+        <v>0.03999999999999737</v>
       </c>
       <c r="AM22" t="n">
         <v>12.58</v>
@@ -11099,7 +11099,7 @@
         <v>-1.65</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.709999999999992</v>
+        <v>1.30999999999999</v>
       </c>
       <c r="AP22" t="n">
         <v>131.25</v>
@@ -11117,7 +11117,7 @@
         <v>0.93</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.040000000000001</v>
+        <v>0.8800000000000046</v>
       </c>
       <c r="AV22" t="n">
         <v>11.18</v>
@@ -11126,7 +11126,7 @@
         <v>6.55</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.599999999999998</v>
+        <v>3.689999999999944</v>
       </c>
       <c r="AY22" t="n">
         <v>52.88</v>
@@ -11135,7 +11135,7 @@
         <v>2.97</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.489999999999998</v>
+        <v>0.2499999999999951</v>
       </c>
       <c r="BB22" t="n">
         <v>18.74</v>
@@ -11153,7 +11153,7 @@
         <v>-16.37</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.350000000000001</v>
+        <v>0.6300000000000034</v>
       </c>
       <c r="BH22" t="n">
         <v>29.45</v>
@@ -11162,7 +11162,7 @@
         <v>8.66</v>
       </c>
       <c r="BJ22" t="n">
-        <v>5.060000000000009</v>
+        <v>1.180000000000049</v>
       </c>
       <c r="BK22" t="n">
         <v>197.45</v>
@@ -11171,7 +11171,7 @@
         <v>26.74</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.8600000000000008</v>
+        <v>0.1899999999999967</v>
       </c>
       <c r="BN22" t="n">
         <v>7.46</v>
@@ -11189,7 +11189,7 @@
         <v>19.43</v>
       </c>
       <c r="BS22" t="n">
-        <v>44.72000000000003</v>
+        <v>1.999999999999989</v>
       </c>
       <c r="BT22" t="n">
         <v>570.77</v>
@@ -11207,7 +11207,7 @@
         <v>-9.23</v>
       </c>
       <c r="BY22" t="n">
-        <v>11.25000000000002</v>
+        <v>0.9700000000000601</v>
       </c>
       <c r="BZ22" t="n">
         <v>145.14</v>
@@ -11216,7 +11216,7 @@
         <v>6.28</v>
       </c>
       <c r="CB22" t="n">
-        <v>3.45</v>
+        <v>0.7500000000000013</v>
       </c>
       <c r="CC22" t="n">
         <v>27.66</v>
@@ -11225,7 +11225,7 @@
         <v>1.12</v>
       </c>
       <c r="CE22" t="n">
-        <v>3.859999999999991</v>
+        <v>0.6199999999999521</v>
       </c>
       <c r="CF22" t="n">
         <v>150.82</v>
@@ -11234,7 +11234,7 @@
         <v>13.04</v>
       </c>
       <c r="CH22" t="n">
-        <v>254.09</v>
+        <v>248.21</v>
       </c>
       <c r="CI22" t="n">
         <v>222.94</v>
@@ -11243,7 +11243,7 @@
         <v>-13.8</v>
       </c>
       <c r="CK22" t="n">
-        <v>6.749999999999989</v>
+        <v>2.909999999999943</v>
       </c>
       <c r="CL22" t="n">
         <v>140.88</v>
@@ -11252,7 +11252,7 @@
         <v>3.03</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.8400000000000021</v>
+        <v>0.6700000000000073</v>
       </c>
       <c r="CO22" t="n">
         <v>17.38</v>
@@ -11270,7 +11270,7 @@
         <v>15.59</v>
       </c>
       <c r="CT22" t="n">
-        <v>6.569999999999997</v>
+        <v>1.709999999999997</v>
       </c>
       <c r="CU22" t="n">
         <v>69.54000000000001</v>
@@ -11288,7 +11288,7 @@
         <v>12.87</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.6199999999999981</v>
+        <v>0.1700000000000085</v>
       </c>
       <c r="DA22" t="n">
         <v>15.87</v>
@@ -11297,7 +11297,7 @@
         <v>11.68</v>
       </c>
       <c r="DC22" t="n">
-        <v>5.139999999999999</v>
+        <v>4.539999999999973</v>
       </c>
       <c r="DD22" t="n">
         <v>63.14</v>
@@ -11306,7 +11306,7 @@
         <v>6.82</v>
       </c>
       <c r="DF22" t="n">
-        <v>7.300000000000008</v>
+        <v>1.499999999999996</v>
       </c>
       <c r="DG22" t="n">
         <v>59.54</v>
@@ -11315,7 +11315,7 @@
         <v>3.17</v>
       </c>
       <c r="DI22" t="n">
-        <v>4.839999999999989</v>
+        <v>0.1899999999999835</v>
       </c>
       <c r="DJ22" t="n">
         <v>106.66</v>
@@ -11324,7 +11324,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="DL22" t="n">
-        <v>8.159999999999989</v>
+        <v>1.22999999999997</v>
       </c>
       <c r="DM22" t="n">
         <v>295.37</v>
@@ -11333,7 +11333,7 @@
         <v>26.17</v>
       </c>
       <c r="DO22" t="n">
-        <v>0.2499999999999991</v>
+        <v>0.07999999999999832</v>
       </c>
       <c r="DP22" t="n">
         <v>8.58</v>
